--- a/Results 2025.xlsx
+++ b/Results 2025.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sd44o365-my.sharepoint.com/personal/19247_sd44_ca/Documents/nsssaa-mtb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{959BACE5-4009-4EA9-89AA-0ADE5BBDFC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D82630AF-AC4E-4731-8BE7-2A86DAEF60F6}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{959BACE5-4009-4EA9-89AA-0ADE5BBDFC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64716B9F-ABC3-4A66-B5C3-F2D6E0C764DA}"/>
   <bookViews>
-    <workbookView xWindow="18350" yWindow="-21130" windowWidth="18780" windowHeight="17000" tabRatio="806" activeTab="4" xr2:uid="{30FE0B90-2ACA-45E1-96D8-5209C85A7A75}"/>
+    <workbookView xWindow="18350" yWindow="-21130" windowWidth="18780" windowHeight="17000" tabRatio="806" activeTab="5" xr2:uid="{30FE0B90-2ACA-45E1-96D8-5209C85A7A75}"/>
   </bookViews>
   <sheets>
     <sheet name="PTS" sheetId="3" r:id="rId1"/>
     <sheet name="TeamHelper" sheetId="5" r:id="rId2"/>
     <sheet name="Lists" sheetId="8" r:id="rId3"/>
     <sheet name="Individual Results" sheetId="2" r:id="rId4"/>
-    <sheet name="TeamPoints" sheetId="11" r:id="rId5"/>
-    <sheet name="Division Export" sheetId="7" r:id="rId6"/>
+    <sheet name="Division Export" sheetId="7" r:id="rId5"/>
+    <sheet name="TeamPoints" sheetId="11" r:id="rId6"/>
     <sheet name="Race Export" sheetId="9" r:id="rId7"/>
     <sheet name="Team Export" sheetId="13" r:id="rId8"/>
     <sheet name="For Print" sheetId="12" r:id="rId9"/>
@@ -26271,6 +26271,4519 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BF49D3-49F2-4B3E-9EF9-46E58C1E4644}">
+  <dimension ref="A1:U100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="19" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="80" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="34"/>
+    <col min="6" max="15" width="8.88671875" style="33"/>
+    <col min="16" max="16" width="8.88671875" style="19"/>
+    <col min="17" max="18" width="8.88671875" style="33"/>
+    <col min="19" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+    </row>
+    <row r="3" spans="1:21" s="6" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="str" cm="1">
+        <f t="array" ref="A4:U69">_xlfn._xlws.SORT(
+  _xlfn._xlws.FILTER('Individual Results'!A2:U501, 'Individual Results'!B2:B501 = $C$1),
+  20, -1
+)</f>
+        <v>Finlay Wood</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C4" s="80" t="str">
+        <v xml:space="preserve">Pemberton  </v>
+      </c>
+      <c r="D4" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E4" s="34">
+        <v>8149</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="33">
+        <v>100</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0</v>
+      </c>
+      <c r="I4" s="33">
+        <v>0</v>
+      </c>
+      <c r="J4" s="33">
+        <v>0</v>
+      </c>
+      <c r="K4" s="33">
+        <v>0</v>
+      </c>
+      <c r="L4" s="33">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33">
+        <v>0</v>
+      </c>
+      <c r="N4" s="33">
+        <v>0</v>
+      </c>
+      <c r="O4" s="33">
+        <v>0</v>
+      </c>
+      <c r="P4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>0</v>
+      </c>
+      <c r="R4" s="33">
+        <v>100</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <v>100</v>
+      </c>
+      <c r="U4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="str">
+        <v>Sacha Strajt-Bornik</v>
+      </c>
+      <c r="B5" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C5" s="80" t="str">
+        <v>Argyle</v>
+      </c>
+      <c r="D5" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E5" s="34">
+        <v>8121</v>
+      </c>
+      <c r="F5" s="33">
+        <v>2</v>
+      </c>
+      <c r="G5" s="33">
+        <v>95</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0</v>
+      </c>
+      <c r="K5" s="33">
+        <v>0</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0</v>
+      </c>
+      <c r="M5" s="33">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="O5" s="33">
+        <v>0</v>
+      </c>
+      <c r="P5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>0</v>
+      </c>
+      <c r="R5" s="33">
+        <v>95</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19">
+        <v>95</v>
+      </c>
+      <c r="U5" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="str">
+        <v>Alexandre Comeau</v>
+      </c>
+      <c r="B6" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C6" s="80" t="str">
+        <v>Handsworth</v>
+      </c>
+      <c r="D6" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E6" s="34">
+        <v>8137</v>
+      </c>
+      <c r="F6" s="33">
+        <v>3</v>
+      </c>
+      <c r="G6" s="33">
+        <v>90</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33">
+        <v>0</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="33">
+        <v>0</v>
+      </c>
+      <c r="P6" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>0</v>
+      </c>
+      <c r="R6" s="33">
+        <v>90</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19">
+        <v>90</v>
+      </c>
+      <c r="U6" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="str">
+        <v>Matthew Crockford</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C7" s="80" t="str">
+        <v>Argyle</v>
+      </c>
+      <c r="D7" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E7" s="34">
+        <v>8122</v>
+      </c>
+      <c r="F7" s="33">
+        <v>4</v>
+      </c>
+      <c r="G7" s="33">
+        <v>85</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <v>0</v>
+      </c>
+      <c r="K7" s="33">
+        <v>0</v>
+      </c>
+      <c r="L7" s="33">
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="33">
+        <v>0</v>
+      </c>
+      <c r="P7" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>0</v>
+      </c>
+      <c r="R7" s="33">
+        <v>85</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>85</v>
+      </c>
+      <c r="U7" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="str">
+        <v>John Suda</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C8" s="80" t="str">
+        <v>STA</v>
+      </c>
+      <c r="D8" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E8" s="34">
+        <v>8163</v>
+      </c>
+      <c r="F8" s="33">
+        <v>5</v>
+      </c>
+      <c r="G8" s="33">
+        <v>80</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33">
+        <v>0</v>
+      </c>
+      <c r="J8" s="33">
+        <v>0</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0</v>
+      </c>
+      <c r="L8" s="33">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="33">
+        <v>0</v>
+      </c>
+      <c r="P8" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>0</v>
+      </c>
+      <c r="R8" s="33">
+        <v>80</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+      <c r="T8" s="19">
+        <v>80</v>
+      </c>
+      <c r="U8" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="str">
+        <v>Xavier Zibert</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C9" s="80" t="str">
+        <v>STA</v>
+      </c>
+      <c r="D9" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E9" s="34">
+        <v>8165</v>
+      </c>
+      <c r="F9" s="33">
+        <v>6</v>
+      </c>
+      <c r="G9" s="33">
+        <v>75</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="33">
+        <v>0</v>
+      </c>
+      <c r="P9" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>0</v>
+      </c>
+      <c r="R9" s="33">
+        <v>75</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <v>75</v>
+      </c>
+      <c r="U9" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="str">
+        <v>Thomson Bythell</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C10" s="80" t="str">
+        <v xml:space="preserve">Don Ross  </v>
+      </c>
+      <c r="D10" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E10" s="34">
+        <v>8134</v>
+      </c>
+      <c r="F10" s="33">
+        <v>7</v>
+      </c>
+      <c r="G10" s="33">
+        <v>70</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0</v>
+      </c>
+      <c r="I10" s="33">
+        <v>0</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0</v>
+      </c>
+      <c r="L10" s="33">
+        <v>0</v>
+      </c>
+      <c r="M10" s="33">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="O10" s="33">
+        <v>0</v>
+      </c>
+      <c r="P10" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>0</v>
+      </c>
+      <c r="R10" s="33">
+        <v>70</v>
+      </c>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <v>70</v>
+      </c>
+      <c r="U10" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" s="19" t="str">
+        <v>Landon Brown</v>
+      </c>
+      <c r="B11" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C11" s="80" t="str">
+        <v>STA</v>
+      </c>
+      <c r="D11" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E11" s="34">
+        <v>8159</v>
+      </c>
+      <c r="F11" s="33">
+        <v>8</v>
+      </c>
+      <c r="G11" s="33">
+        <v>65</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+      <c r="J11" s="33">
+        <v>0</v>
+      </c>
+      <c r="K11" s="33">
+        <v>0</v>
+      </c>
+      <c r="L11" s="33">
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="33">
+        <v>0</v>
+      </c>
+      <c r="P11" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>0</v>
+      </c>
+      <c r="R11" s="33">
+        <v>65</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="19">
+        <v>65</v>
+      </c>
+      <c r="U11" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="str">
+        <v>Aiden Klimek</v>
+      </c>
+      <c r="B12" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C12" s="80" t="str">
+        <v>Mulgrave</v>
+      </c>
+      <c r="D12" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E12" s="34">
+        <v>8144</v>
+      </c>
+      <c r="F12" s="33">
+        <v>9</v>
+      </c>
+      <c r="G12" s="33">
+        <v>60</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33">
+        <v>0</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0</v>
+      </c>
+      <c r="L12" s="33">
+        <v>0</v>
+      </c>
+      <c r="M12" s="33">
+        <v>0</v>
+      </c>
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="O12" s="33">
+        <v>0</v>
+      </c>
+      <c r="P12" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>0</v>
+      </c>
+      <c r="R12" s="33">
+        <v>60</v>
+      </c>
+      <c r="S12" s="19">
+        <v>0</v>
+      </c>
+      <c r="T12" s="19">
+        <v>60</v>
+      </c>
+      <c r="U12" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="str">
+        <v>Elliot O'Hara</v>
+      </c>
+      <c r="B13" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C13" s="80" t="str">
+        <v>STA</v>
+      </c>
+      <c r="D13" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E13" s="34">
+        <v>8161</v>
+      </c>
+      <c r="F13" s="33">
+        <v>10</v>
+      </c>
+      <c r="G13" s="33">
+        <v>55</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="33">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>0</v>
+      </c>
+      <c r="R13" s="33">
+        <v>55</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <v>55</v>
+      </c>
+      <c r="U13" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="str">
+        <v>Lucas Norbert</v>
+      </c>
+      <c r="B14" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C14" s="80" t="str">
+        <v>Seycove</v>
+      </c>
+      <c r="D14" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E14" s="34">
+        <v>8156</v>
+      </c>
+      <c r="F14" s="33">
+        <v>11</v>
+      </c>
+      <c r="G14" s="33">
+        <v>53</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0</v>
+      </c>
+      <c r="K14" s="33">
+        <v>0</v>
+      </c>
+      <c r="L14" s="33">
+        <v>0</v>
+      </c>
+      <c r="M14" s="33">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="33">
+        <v>0</v>
+      </c>
+      <c r="P14" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>0</v>
+      </c>
+      <c r="R14" s="33">
+        <v>53</v>
+      </c>
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19">
+        <v>53</v>
+      </c>
+      <c r="U14" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="str">
+        <v>Daniel Gold</v>
+      </c>
+      <c r="B15" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C15" s="80" t="str">
+        <v>Handsworth</v>
+      </c>
+      <c r="D15" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E15" s="34">
+        <v>8178</v>
+      </c>
+      <c r="F15" s="33">
+        <v>13</v>
+      </c>
+      <c r="G15" s="33">
+        <v>49</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="O15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>0</v>
+      </c>
+      <c r="R15" s="33">
+        <v>49</v>
+      </c>
+      <c r="S15" s="19">
+        <v>0</v>
+      </c>
+      <c r="T15" s="19">
+        <v>49</v>
+      </c>
+      <c r="U15" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="str">
+        <v>Kyle Hopper-Isaac</v>
+      </c>
+      <c r="B16" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C16" s="80" t="str">
+        <v>Seycove</v>
+      </c>
+      <c r="D16" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E16" s="34">
+        <v>8153</v>
+      </c>
+      <c r="F16" s="33">
+        <v>14</v>
+      </c>
+      <c r="G16" s="33">
+        <v>47</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33">
+        <v>0</v>
+      </c>
+      <c r="J16" s="33">
+        <v>0</v>
+      </c>
+      <c r="K16" s="33">
+        <v>0</v>
+      </c>
+      <c r="L16" s="33">
+        <v>0</v>
+      </c>
+      <c r="M16" s="33">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="O16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>0</v>
+      </c>
+      <c r="R16" s="33">
+        <v>47</v>
+      </c>
+      <c r="S16" s="19">
+        <v>0</v>
+      </c>
+      <c r="T16" s="19">
+        <v>47</v>
+      </c>
+      <c r="U16" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="str">
+        <v>Ben Hall</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C17" s="80" t="str">
+        <v>Argyle</v>
+      </c>
+      <c r="D17" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E17" s="34">
+        <v>8118</v>
+      </c>
+      <c r="F17" s="33">
+        <v>15</v>
+      </c>
+      <c r="G17" s="33">
+        <v>45</v>
+      </c>
+      <c r="H17" s="33">
+        <v>0</v>
+      </c>
+      <c r="I17" s="33">
+        <v>0</v>
+      </c>
+      <c r="J17" s="33">
+        <v>0</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+      <c r="L17" s="33">
+        <v>0</v>
+      </c>
+      <c r="M17" s="33">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="O17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>0</v>
+      </c>
+      <c r="R17" s="33">
+        <v>45</v>
+      </c>
+      <c r="S17" s="19">
+        <v>0</v>
+      </c>
+      <c r="T17" s="19">
+        <v>45</v>
+      </c>
+      <c r="U17" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="str">
+        <v>Benjamin MacPherson</v>
+      </c>
+      <c r="B18" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C18" s="80" t="str">
+        <v>Handsworth</v>
+      </c>
+      <c r="D18" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E18" s="34">
+        <v>8139</v>
+      </c>
+      <c r="F18" s="33">
+        <v>16</v>
+      </c>
+      <c r="G18" s="33">
+        <v>44</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33">
+        <v>0</v>
+      </c>
+      <c r="J18" s="33">
+        <v>0</v>
+      </c>
+      <c r="K18" s="33">
+        <v>0</v>
+      </c>
+      <c r="L18" s="33">
+        <v>0</v>
+      </c>
+      <c r="M18" s="33">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="O18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>0</v>
+      </c>
+      <c r="R18" s="33">
+        <v>44</v>
+      </c>
+      <c r="S18" s="19">
+        <v>0</v>
+      </c>
+      <c r="T18" s="19">
+        <v>44</v>
+      </c>
+      <c r="U18" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" s="19" t="str">
+        <v>Finny Stacey</v>
+      </c>
+      <c r="B19" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C19" s="80" t="str">
+        <v>Collingwood</v>
+      </c>
+      <c r="D19" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E19" s="34">
+        <v>8125</v>
+      </c>
+      <c r="F19" s="33">
+        <v>17</v>
+      </c>
+      <c r="G19" s="33">
+        <v>43</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
+        <v>0</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
+        <v>0</v>
+      </c>
+      <c r="M19" s="33">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>0</v>
+      </c>
+      <c r="R19" s="33">
+        <v>43</v>
+      </c>
+      <c r="S19" s="19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="19">
+        <v>43</v>
+      </c>
+      <c r="U19" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" s="19" t="str">
+        <v>Milo Trenouth</v>
+      </c>
+      <c r="B20" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C20" s="80" t="str">
+        <v>Argyle</v>
+      </c>
+      <c r="D20" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E20" s="34">
+        <v>8123</v>
+      </c>
+      <c r="F20" s="33">
+        <v>18</v>
+      </c>
+      <c r="G20" s="33">
+        <v>42</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0</v>
+      </c>
+      <c r="I20" s="33">
+        <v>0</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0</v>
+      </c>
+      <c r="K20" s="33">
+        <v>0</v>
+      </c>
+      <c r="L20" s="33">
+        <v>0</v>
+      </c>
+      <c r="M20" s="33">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="O20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="33">
+        <v>0</v>
+      </c>
+      <c r="R20" s="33">
+        <v>42</v>
+      </c>
+      <c r="S20" s="19">
+        <v>0</v>
+      </c>
+      <c r="T20" s="19">
+        <v>42</v>
+      </c>
+      <c r="U20" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" s="19" t="str">
+        <v>Alexandre Roy</v>
+      </c>
+      <c r="B21" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C21" s="80" t="str">
+        <v>Sutherland</v>
+      </c>
+      <c r="D21" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E21" s="34">
+        <v>8170</v>
+      </c>
+      <c r="F21" s="33">
+        <v>19</v>
+      </c>
+      <c r="G21" s="33">
+        <v>41</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33">
+        <v>0</v>
+      </c>
+      <c r="K21" s="33">
+        <v>0</v>
+      </c>
+      <c r="L21" s="33">
+        <v>0</v>
+      </c>
+      <c r="M21" s="33">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="O21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="33">
+        <v>0</v>
+      </c>
+      <c r="R21" s="33">
+        <v>41</v>
+      </c>
+      <c r="S21" s="19">
+        <v>0</v>
+      </c>
+      <c r="T21" s="19">
+        <v>41</v>
+      </c>
+      <c r="U21" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" s="19" t="str">
+        <v>Wyatt Orr</v>
+      </c>
+      <c r="B22" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C22" s="80" t="str">
+        <v>Sutherland</v>
+      </c>
+      <c r="D22" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E22" s="34">
+        <v>8168</v>
+      </c>
+      <c r="F22" s="33">
+        <v>20</v>
+      </c>
+      <c r="G22" s="33">
+        <v>40</v>
+      </c>
+      <c r="H22" s="33">
+        <v>0</v>
+      </c>
+      <c r="I22" s="33">
+        <v>0</v>
+      </c>
+      <c r="J22" s="33">
+        <v>0</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0</v>
+      </c>
+      <c r="L22" s="33">
+        <v>0</v>
+      </c>
+      <c r="M22" s="33">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="O22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="33">
+        <v>0</v>
+      </c>
+      <c r="R22" s="33">
+        <v>40</v>
+      </c>
+      <c r="S22" s="19">
+        <v>0</v>
+      </c>
+      <c r="T22" s="19">
+        <v>40</v>
+      </c>
+      <c r="U22" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A23" s="19" t="str">
+        <v>Daniel Munroe</v>
+      </c>
+      <c r="B23" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C23" s="80" t="str">
+        <v>Argyle</v>
+      </c>
+      <c r="D23" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E23" s="34">
+        <v>8117</v>
+      </c>
+      <c r="F23" s="33">
+        <v>21</v>
+      </c>
+      <c r="G23" s="33">
+        <v>39</v>
+      </c>
+      <c r="H23" s="33">
+        <v>0</v>
+      </c>
+      <c r="I23" s="33">
+        <v>0</v>
+      </c>
+      <c r="J23" s="33">
+        <v>0</v>
+      </c>
+      <c r="K23" s="33">
+        <v>0</v>
+      </c>
+      <c r="L23" s="33">
+        <v>0</v>
+      </c>
+      <c r="M23" s="33">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="O23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>0</v>
+      </c>
+      <c r="R23" s="33">
+        <v>39</v>
+      </c>
+      <c r="S23" s="19">
+        <v>0</v>
+      </c>
+      <c r="T23" s="19">
+        <v>39</v>
+      </c>
+      <c r="U23" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A24" s="19" t="str">
+        <v>Jared Kalisch</v>
+      </c>
+      <c r="B24" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C24" s="80" t="str">
+        <v>Seycove</v>
+      </c>
+      <c r="D24" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E24" s="34">
+        <v>8155</v>
+      </c>
+      <c r="F24" s="33">
+        <v>22</v>
+      </c>
+      <c r="G24" s="33">
+        <v>38</v>
+      </c>
+      <c r="H24" s="33">
+        <v>0</v>
+      </c>
+      <c r="I24" s="33">
+        <v>0</v>
+      </c>
+      <c r="J24" s="33">
+        <v>0</v>
+      </c>
+      <c r="K24" s="33">
+        <v>0</v>
+      </c>
+      <c r="L24" s="33">
+        <v>0</v>
+      </c>
+      <c r="M24" s="33">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="O24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="33">
+        <v>0</v>
+      </c>
+      <c r="R24" s="33">
+        <v>38</v>
+      </c>
+      <c r="S24" s="19">
+        <v>0</v>
+      </c>
+      <c r="T24" s="19">
+        <v>38</v>
+      </c>
+      <c r="U24" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" s="19" t="str">
+        <v>Luke Brownlee</v>
+      </c>
+      <c r="B25" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C25" s="80" t="str">
+        <v>STA</v>
+      </c>
+      <c r="D25" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E25" s="34">
+        <v>8160</v>
+      </c>
+      <c r="F25" s="33">
+        <v>23</v>
+      </c>
+      <c r="G25" s="33">
+        <v>37</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0</v>
+      </c>
+      <c r="I25" s="33">
+        <v>0</v>
+      </c>
+      <c r="J25" s="33">
+        <v>0</v>
+      </c>
+      <c r="K25" s="33">
+        <v>0</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0</v>
+      </c>
+      <c r="M25" s="33">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" s="33">
+        <v>0</v>
+      </c>
+      <c r="P25" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="33">
+        <v>0</v>
+      </c>
+      <c r="R25" s="33">
+        <v>37</v>
+      </c>
+      <c r="S25" s="19">
+        <v>0</v>
+      </c>
+      <c r="T25" s="19">
+        <v>37</v>
+      </c>
+      <c r="U25" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" s="19" t="str">
+        <v>Stellan Ortved</v>
+      </c>
+      <c r="B26" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C26" s="80" t="str">
+        <v>Collingwood</v>
+      </c>
+      <c r="D26" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E26" s="34">
+        <v>8128</v>
+      </c>
+      <c r="F26" s="33">
+        <v>24</v>
+      </c>
+      <c r="G26" s="33">
+        <v>36</v>
+      </c>
+      <c r="H26" s="33">
+        <v>0</v>
+      </c>
+      <c r="I26" s="33">
+        <v>0</v>
+      </c>
+      <c r="J26" s="33">
+        <v>0</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0</v>
+      </c>
+      <c r="L26" s="33">
+        <v>0</v>
+      </c>
+      <c r="M26" s="33">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="O26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="33">
+        <v>0</v>
+      </c>
+      <c r="R26" s="33">
+        <v>36</v>
+      </c>
+      <c r="S26" s="19">
+        <v>0</v>
+      </c>
+      <c r="T26" s="19">
+        <v>36</v>
+      </c>
+      <c r="U26" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A27" s="19" t="str">
+        <v>Pierre Hungr Gonzalez</v>
+      </c>
+      <c r="B27" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C27" s="80" t="str">
+        <v>West Van</v>
+      </c>
+      <c r="D27" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E27" s="34">
+        <v>8171</v>
+      </c>
+      <c r="F27" s="33">
+        <v>25</v>
+      </c>
+      <c r="G27" s="33">
+        <v>35</v>
+      </c>
+      <c r="H27" s="33">
+        <v>0</v>
+      </c>
+      <c r="I27" s="33">
+        <v>0</v>
+      </c>
+      <c r="J27" s="33">
+        <v>0</v>
+      </c>
+      <c r="K27" s="33">
+        <v>0</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0</v>
+      </c>
+      <c r="M27" s="33">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="O27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>0</v>
+      </c>
+      <c r="R27" s="33">
+        <v>35</v>
+      </c>
+      <c r="S27" s="19">
+        <v>0</v>
+      </c>
+      <c r="T27" s="19">
+        <v>35</v>
+      </c>
+      <c r="U27" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A28" s="19" t="str">
+        <v>Simon Hungr Gonzalez</v>
+      </c>
+      <c r="B28" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C28" s="80" t="str">
+        <v>West Van</v>
+      </c>
+      <c r="D28" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E28" s="34">
+        <v>8172</v>
+      </c>
+      <c r="F28" s="33">
+        <v>26</v>
+      </c>
+      <c r="G28" s="33">
+        <v>34</v>
+      </c>
+      <c r="H28" s="33">
+        <v>0</v>
+      </c>
+      <c r="I28" s="33">
+        <v>0</v>
+      </c>
+      <c r="J28" s="33">
+        <v>0</v>
+      </c>
+      <c r="K28" s="33">
+        <v>0</v>
+      </c>
+      <c r="L28" s="33">
+        <v>0</v>
+      </c>
+      <c r="M28" s="33">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="O28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="33">
+        <v>0</v>
+      </c>
+      <c r="R28" s="33">
+        <v>34</v>
+      </c>
+      <c r="S28" s="19">
+        <v>0</v>
+      </c>
+      <c r="T28" s="19">
+        <v>34</v>
+      </c>
+      <c r="U28" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29" s="19" t="str">
+        <v>Oliver Thatcher</v>
+      </c>
+      <c r="B29" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C29" s="80" t="str">
+        <v>Sutherland</v>
+      </c>
+      <c r="D29" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E29" s="34">
+        <v>8167</v>
+      </c>
+      <c r="F29" s="33">
+        <v>27</v>
+      </c>
+      <c r="G29" s="33">
+        <v>33</v>
+      </c>
+      <c r="H29" s="33">
+        <v>0</v>
+      </c>
+      <c r="I29" s="33">
+        <v>0</v>
+      </c>
+      <c r="J29" s="33">
+        <v>0</v>
+      </c>
+      <c r="K29" s="33">
+        <v>0</v>
+      </c>
+      <c r="L29" s="33">
+        <v>0</v>
+      </c>
+      <c r="M29" s="33">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="O29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="33">
+        <v>0</v>
+      </c>
+      <c r="R29" s="33">
+        <v>33</v>
+      </c>
+      <c r="S29" s="19">
+        <v>0</v>
+      </c>
+      <c r="T29" s="19">
+        <v>33</v>
+      </c>
+      <c r="U29" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A30" s="19" t="str">
+        <v>Lucas Riedel</v>
+      </c>
+      <c r="B30" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C30" s="80" t="str">
+        <v>STA</v>
+      </c>
+      <c r="D30" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E30" s="34">
+        <v>8162</v>
+      </c>
+      <c r="F30" s="33">
+        <v>28</v>
+      </c>
+      <c r="G30" s="33">
+        <v>32</v>
+      </c>
+      <c r="H30" s="33">
+        <v>0</v>
+      </c>
+      <c r="I30" s="33">
+        <v>0</v>
+      </c>
+      <c r="J30" s="33">
+        <v>0</v>
+      </c>
+      <c r="K30" s="33">
+        <v>0</v>
+      </c>
+      <c r="L30" s="33">
+        <v>0</v>
+      </c>
+      <c r="M30" s="33">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="O30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="33">
+        <v>0</v>
+      </c>
+      <c r="R30" s="33">
+        <v>32</v>
+      </c>
+      <c r="S30" s="19">
+        <v>0</v>
+      </c>
+      <c r="T30" s="19">
+        <v>32</v>
+      </c>
+      <c r="U30" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A31" s="19" t="str">
+        <v>Maksimas Viskontas</v>
+      </c>
+      <c r="B31" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C31" s="80" t="str">
+        <v>STA</v>
+      </c>
+      <c r="D31" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E31" s="34">
+        <v>8164</v>
+      </c>
+      <c r="F31" s="33">
+        <v>29</v>
+      </c>
+      <c r="G31" s="33">
+        <v>31</v>
+      </c>
+      <c r="H31" s="33">
+        <v>0</v>
+      </c>
+      <c r="I31" s="33">
+        <v>0</v>
+      </c>
+      <c r="J31" s="33">
+        <v>0</v>
+      </c>
+      <c r="K31" s="33">
+        <v>0</v>
+      </c>
+      <c r="L31" s="33">
+        <v>0</v>
+      </c>
+      <c r="M31" s="33">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="O31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="33">
+        <v>0</v>
+      </c>
+      <c r="R31" s="33">
+        <v>31</v>
+      </c>
+      <c r="S31" s="19">
+        <v>0</v>
+      </c>
+      <c r="T31" s="19">
+        <v>31</v>
+      </c>
+      <c r="U31" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A32" s="19" t="str">
+        <v>Charlie Jones</v>
+      </c>
+      <c r="B32" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C32" s="80" t="str">
+        <v>St. Georges</v>
+      </c>
+      <c r="D32" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E32" s="34">
+        <v>8157</v>
+      </c>
+      <c r="F32" s="33">
+        <v>30</v>
+      </c>
+      <c r="G32" s="33">
+        <v>30</v>
+      </c>
+      <c r="H32" s="33">
+        <v>0</v>
+      </c>
+      <c r="I32" s="33">
+        <v>0</v>
+      </c>
+      <c r="J32" s="33">
+        <v>0</v>
+      </c>
+      <c r="K32" s="33">
+        <v>0</v>
+      </c>
+      <c r="L32" s="33">
+        <v>0</v>
+      </c>
+      <c r="M32" s="33">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="O32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="33">
+        <v>0</v>
+      </c>
+      <c r="R32" s="33">
+        <v>30</v>
+      </c>
+      <c r="S32" s="19">
+        <v>0</v>
+      </c>
+      <c r="T32" s="19">
+        <v>30</v>
+      </c>
+      <c r="U32" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A33" s="19" t="str">
+        <v>Bruckner Norman-Thiessen</v>
+      </c>
+      <c r="B33" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C33" s="80" t="str">
+        <v>Collingwood</v>
+      </c>
+      <c r="D33" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E33" s="34">
+        <v>8129</v>
+      </c>
+      <c r="F33" s="33">
+        <v>31</v>
+      </c>
+      <c r="G33" s="33">
+        <v>29</v>
+      </c>
+      <c r="H33" s="33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="33">
+        <v>0</v>
+      </c>
+      <c r="R33" s="33">
+        <v>29</v>
+      </c>
+      <c r="S33" s="19">
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
+        <v>29</v>
+      </c>
+      <c r="U33" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A34" s="19" t="str">
+        <v>Ben Zanatta</v>
+      </c>
+      <c r="B34" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C34" s="80" t="str">
+        <v>Rockridge</v>
+      </c>
+      <c r="D34" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E34" s="34">
+        <v>8151</v>
+      </c>
+      <c r="F34" s="33">
+        <v>32</v>
+      </c>
+      <c r="G34" s="33">
+        <v>28</v>
+      </c>
+      <c r="H34" s="33">
+        <v>0</v>
+      </c>
+      <c r="I34" s="33">
+        <v>0</v>
+      </c>
+      <c r="J34" s="33">
+        <v>0</v>
+      </c>
+      <c r="K34" s="33">
+        <v>0</v>
+      </c>
+      <c r="L34" s="33">
+        <v>0</v>
+      </c>
+      <c r="M34" s="33">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="O34" s="33">
+        <v>0</v>
+      </c>
+      <c r="P34" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="33">
+        <v>0</v>
+      </c>
+      <c r="R34" s="33">
+        <v>28</v>
+      </c>
+      <c r="S34" s="19">
+        <v>0</v>
+      </c>
+      <c r="T34" s="19">
+        <v>28</v>
+      </c>
+      <c r="U34" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A35" s="19" t="str">
+        <v>Graydon Hotel</v>
+      </c>
+      <c r="B35" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C35" s="80" t="str">
+        <v>Handsworth</v>
+      </c>
+      <c r="D35" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E35" s="34">
+        <v>8141</v>
+      </c>
+      <c r="F35" s="33">
+        <v>33</v>
+      </c>
+      <c r="G35" s="33">
+        <v>27</v>
+      </c>
+      <c r="H35" s="33">
+        <v>0</v>
+      </c>
+      <c r="I35" s="33">
+        <v>0</v>
+      </c>
+      <c r="J35" s="33">
+        <v>0</v>
+      </c>
+      <c r="K35" s="33">
+        <v>0</v>
+      </c>
+      <c r="L35" s="33">
+        <v>0</v>
+      </c>
+      <c r="M35" s="33">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="O35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="33">
+        <v>0</v>
+      </c>
+      <c r="R35" s="33">
+        <v>27</v>
+      </c>
+      <c r="S35" s="19">
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <v>27</v>
+      </c>
+      <c r="U35" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A36" s="19" t="str">
+        <v>Derin Unal</v>
+      </c>
+      <c r="B36" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C36" s="80" t="str">
+        <v>Mulgrave</v>
+      </c>
+      <c r="D36" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E36" s="34">
+        <v>8145</v>
+      </c>
+      <c r="F36" s="33">
+        <v>34</v>
+      </c>
+      <c r="G36" s="33">
+        <v>26</v>
+      </c>
+      <c r="H36" s="33">
+        <v>0</v>
+      </c>
+      <c r="I36" s="33">
+        <v>0</v>
+      </c>
+      <c r="J36" s="33">
+        <v>0</v>
+      </c>
+      <c r="K36" s="33">
+        <v>0</v>
+      </c>
+      <c r="L36" s="33">
+        <v>0</v>
+      </c>
+      <c r="M36" s="33">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <v>0</v>
+      </c>
+      <c r="O36" s="33">
+        <v>0</v>
+      </c>
+      <c r="P36" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="33">
+        <v>0</v>
+      </c>
+      <c r="R36" s="33">
+        <v>26</v>
+      </c>
+      <c r="S36" s="19">
+        <v>0</v>
+      </c>
+      <c r="T36" s="19">
+        <v>26</v>
+      </c>
+      <c r="U36" s="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A37" s="19" t="str">
+        <v>Gavin Del Fante</v>
+      </c>
+      <c r="B37" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C37" s="80" t="str">
+        <v>Seycove</v>
+      </c>
+      <c r="D37" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E37" s="34">
+        <v>8152</v>
+      </c>
+      <c r="F37" s="33">
+        <v>35</v>
+      </c>
+      <c r="G37" s="33">
+        <v>25</v>
+      </c>
+      <c r="H37" s="33">
+        <v>0</v>
+      </c>
+      <c r="I37" s="33">
+        <v>0</v>
+      </c>
+      <c r="J37" s="33">
+        <v>0</v>
+      </c>
+      <c r="K37" s="33">
+        <v>0</v>
+      </c>
+      <c r="L37" s="33">
+        <v>0</v>
+      </c>
+      <c r="M37" s="33">
+        <v>0</v>
+      </c>
+      <c r="N37" s="33">
+        <v>0</v>
+      </c>
+      <c r="O37" s="33">
+        <v>0</v>
+      </c>
+      <c r="P37" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="33">
+        <v>0</v>
+      </c>
+      <c r="R37" s="33">
+        <v>25</v>
+      </c>
+      <c r="S37" s="19">
+        <v>0</v>
+      </c>
+      <c r="T37" s="19">
+        <v>25</v>
+      </c>
+      <c r="U37" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A38" s="19" t="str">
+        <v>Logan Weiss-Podolski</v>
+      </c>
+      <c r="B38" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C38" s="80" t="str">
+        <v>Carson</v>
+      </c>
+      <c r="D38" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E38" s="34">
+        <v>804</v>
+      </c>
+      <c r="F38" s="33">
+        <v>36</v>
+      </c>
+      <c r="G38" s="33">
+        <v>24</v>
+      </c>
+      <c r="H38" s="33">
+        <v>0</v>
+      </c>
+      <c r="I38" s="33">
+        <v>0</v>
+      </c>
+      <c r="J38" s="33">
+        <v>0</v>
+      </c>
+      <c r="K38" s="33">
+        <v>0</v>
+      </c>
+      <c r="L38" s="33">
+        <v>0</v>
+      </c>
+      <c r="M38" s="33">
+        <v>0</v>
+      </c>
+      <c r="N38" s="33">
+        <v>0</v>
+      </c>
+      <c r="O38" s="33">
+        <v>0</v>
+      </c>
+      <c r="P38" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="33">
+        <v>0</v>
+      </c>
+      <c r="R38" s="33">
+        <v>24</v>
+      </c>
+      <c r="S38" s="19">
+        <v>0</v>
+      </c>
+      <c r="T38" s="19">
+        <v>24</v>
+      </c>
+      <c r="U38" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A39" s="19" t="str">
+        <v>Matthew Runzer</v>
+      </c>
+      <c r="B39" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C39" s="80" t="str">
+        <v>Handsworth</v>
+      </c>
+      <c r="D39" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E39" s="34">
+        <v>8142</v>
+      </c>
+      <c r="F39" s="33">
+        <v>37</v>
+      </c>
+      <c r="G39" s="33">
+        <v>23</v>
+      </c>
+      <c r="H39" s="33">
+        <v>0</v>
+      </c>
+      <c r="I39" s="33">
+        <v>0</v>
+      </c>
+      <c r="J39" s="33">
+        <v>0</v>
+      </c>
+      <c r="K39" s="33">
+        <v>0</v>
+      </c>
+      <c r="L39" s="33">
+        <v>0</v>
+      </c>
+      <c r="M39" s="33">
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <v>0</v>
+      </c>
+      <c r="O39" s="33">
+        <v>0</v>
+      </c>
+      <c r="P39" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="33">
+        <v>0</v>
+      </c>
+      <c r="R39" s="33">
+        <v>23</v>
+      </c>
+      <c r="S39" s="19">
+        <v>0</v>
+      </c>
+      <c r="T39" s="19">
+        <v>23</v>
+      </c>
+      <c r="U39" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A40" s="19" t="str">
+        <v>Bradley Harris</v>
+      </c>
+      <c r="B40" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C40" s="80" t="str">
+        <v>Sutherland</v>
+      </c>
+      <c r="D40" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E40" s="34">
+        <v>8169</v>
+      </c>
+      <c r="F40" s="33">
+        <v>37</v>
+      </c>
+      <c r="G40" s="33">
+        <v>23</v>
+      </c>
+      <c r="H40" s="33">
+        <v>0</v>
+      </c>
+      <c r="I40" s="33">
+        <v>0</v>
+      </c>
+      <c r="J40" s="33">
+        <v>0</v>
+      </c>
+      <c r="K40" s="33">
+        <v>0</v>
+      </c>
+      <c r="L40" s="33">
+        <v>0</v>
+      </c>
+      <c r="M40" s="33">
+        <v>0</v>
+      </c>
+      <c r="N40" s="33">
+        <v>0</v>
+      </c>
+      <c r="O40" s="33">
+        <v>0</v>
+      </c>
+      <c r="P40" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="33">
+        <v>0</v>
+      </c>
+      <c r="R40" s="33">
+        <v>23</v>
+      </c>
+      <c r="S40" s="19">
+        <v>0</v>
+      </c>
+      <c r="T40" s="19">
+        <v>23</v>
+      </c>
+      <c r="U40" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A41" s="19" t="str">
+        <v>Bradley Keane</v>
+      </c>
+      <c r="B41" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C41" s="80" t="str">
+        <v>Collingwood</v>
+      </c>
+      <c r="D41" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E41" s="34">
+        <v>8126</v>
+      </c>
+      <c r="F41" s="33">
+        <v>38</v>
+      </c>
+      <c r="G41" s="33">
+        <v>22</v>
+      </c>
+      <c r="H41" s="33">
+        <v>0</v>
+      </c>
+      <c r="I41" s="33">
+        <v>0</v>
+      </c>
+      <c r="J41" s="33">
+        <v>0</v>
+      </c>
+      <c r="K41" s="33">
+        <v>0</v>
+      </c>
+      <c r="L41" s="33">
+        <v>0</v>
+      </c>
+      <c r="M41" s="33">
+        <v>0</v>
+      </c>
+      <c r="N41" s="33">
+        <v>0</v>
+      </c>
+      <c r="O41" s="33">
+        <v>0</v>
+      </c>
+      <c r="P41" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="33">
+        <v>0</v>
+      </c>
+      <c r="R41" s="33">
+        <v>22</v>
+      </c>
+      <c r="S41" s="19">
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <v>22</v>
+      </c>
+      <c r="U41" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A42" s="19" t="str">
+        <v>James Felix</v>
+      </c>
+      <c r="B42" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C42" s="80" t="str">
+        <v>Windsor</v>
+      </c>
+      <c r="D42" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E42" s="34">
+        <v>8175</v>
+      </c>
+      <c r="F42" s="33">
+        <v>39</v>
+      </c>
+      <c r="G42" s="33">
+        <v>21</v>
+      </c>
+      <c r="H42" s="33">
+        <v>0</v>
+      </c>
+      <c r="I42" s="33">
+        <v>0</v>
+      </c>
+      <c r="J42" s="33">
+        <v>0</v>
+      </c>
+      <c r="K42" s="33">
+        <v>0</v>
+      </c>
+      <c r="L42" s="33">
+        <v>0</v>
+      </c>
+      <c r="M42" s="33">
+        <v>0</v>
+      </c>
+      <c r="N42" s="33">
+        <v>0</v>
+      </c>
+      <c r="O42" s="33">
+        <v>0</v>
+      </c>
+      <c r="P42" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="33">
+        <v>0</v>
+      </c>
+      <c r="R42" s="33">
+        <v>21</v>
+      </c>
+      <c r="S42" s="19">
+        <v>0</v>
+      </c>
+      <c r="T42" s="19">
+        <v>21</v>
+      </c>
+      <c r="U42" s="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A43" s="19" t="str">
+        <v>Bradley Stephenson</v>
+      </c>
+      <c r="B43" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C43" s="80" t="str">
+        <v>Sutherland</v>
+      </c>
+      <c r="D43" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E43" s="34">
+        <v>8166</v>
+      </c>
+      <c r="F43" s="33">
+        <v>40</v>
+      </c>
+      <c r="G43" s="33">
+        <v>20</v>
+      </c>
+      <c r="H43" s="33">
+        <v>0</v>
+      </c>
+      <c r="I43" s="33">
+        <v>0</v>
+      </c>
+      <c r="J43" s="33">
+        <v>0</v>
+      </c>
+      <c r="K43" s="33">
+        <v>0</v>
+      </c>
+      <c r="L43" s="33">
+        <v>0</v>
+      </c>
+      <c r="M43" s="33">
+        <v>0</v>
+      </c>
+      <c r="N43" s="33">
+        <v>0</v>
+      </c>
+      <c r="O43" s="33">
+        <v>0</v>
+      </c>
+      <c r="P43" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="33">
+        <v>0</v>
+      </c>
+      <c r="R43" s="33">
+        <v>20</v>
+      </c>
+      <c r="S43" s="19">
+        <v>0</v>
+      </c>
+      <c r="T43" s="19">
+        <v>20</v>
+      </c>
+      <c r="U43" s="19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A44" s="19" t="str">
+        <v>Asher Webb</v>
+      </c>
+      <c r="B44" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C44" s="80" t="str">
+        <v>Handsworth</v>
+      </c>
+      <c r="D44" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E44" s="34">
+        <v>8138</v>
+      </c>
+      <c r="F44" s="33">
+        <v>41</v>
+      </c>
+      <c r="G44" s="33">
+        <v>19</v>
+      </c>
+      <c r="H44" s="33">
+        <v>0</v>
+      </c>
+      <c r="I44" s="33">
+        <v>0</v>
+      </c>
+      <c r="J44" s="33">
+        <v>0</v>
+      </c>
+      <c r="K44" s="33">
+        <v>0</v>
+      </c>
+      <c r="L44" s="33">
+        <v>0</v>
+      </c>
+      <c r="M44" s="33">
+        <v>0</v>
+      </c>
+      <c r="N44" s="33">
+        <v>0</v>
+      </c>
+      <c r="O44" s="33">
+        <v>0</v>
+      </c>
+      <c r="P44" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="33">
+        <v>0</v>
+      </c>
+      <c r="R44" s="33">
+        <v>19</v>
+      </c>
+      <c r="S44" s="19">
+        <v>0</v>
+      </c>
+      <c r="T44" s="19">
+        <v>19</v>
+      </c>
+      <c r="U44" s="19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A45" s="19" t="str">
+        <v>Cameron Horte</v>
+      </c>
+      <c r="B45" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C45" s="80" t="str">
+        <v>Rockridge</v>
+      </c>
+      <c r="D45" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E45" s="34">
+        <v>8150</v>
+      </c>
+      <c r="F45" s="33">
+        <v>42</v>
+      </c>
+      <c r="G45" s="33">
+        <v>18</v>
+      </c>
+      <c r="H45" s="33">
+        <v>0</v>
+      </c>
+      <c r="I45" s="33">
+        <v>0</v>
+      </c>
+      <c r="J45" s="33">
+        <v>0</v>
+      </c>
+      <c r="K45" s="33">
+        <v>0</v>
+      </c>
+      <c r="L45" s="33">
+        <v>0</v>
+      </c>
+      <c r="M45" s="33">
+        <v>0</v>
+      </c>
+      <c r="N45" s="33">
+        <v>0</v>
+      </c>
+      <c r="O45" s="33">
+        <v>0</v>
+      </c>
+      <c r="P45" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="33">
+        <v>0</v>
+      </c>
+      <c r="R45" s="33">
+        <v>18</v>
+      </c>
+      <c r="S45" s="19">
+        <v>0</v>
+      </c>
+      <c r="T45" s="19">
+        <v>18</v>
+      </c>
+      <c r="U45" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A46" s="19" t="str">
+        <v>Jack Lucy</v>
+      </c>
+      <c r="B46" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C46" s="80" t="str">
+        <v>Argyle</v>
+      </c>
+      <c r="D46" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E46" s="34">
+        <v>8143</v>
+      </c>
+      <c r="F46" s="33" t="str">
+        <v>DNF</v>
+      </c>
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+      <c r="H46" s="33">
+        <v>0</v>
+      </c>
+      <c r="I46" s="33">
+        <v>0</v>
+      </c>
+      <c r="J46" s="33">
+        <v>0</v>
+      </c>
+      <c r="K46" s="33">
+        <v>0</v>
+      </c>
+      <c r="L46" s="33">
+        <v>0</v>
+      </c>
+      <c r="M46" s="33">
+        <v>0</v>
+      </c>
+      <c r="N46" s="33">
+        <v>0</v>
+      </c>
+      <c r="O46" s="33">
+        <v>0</v>
+      </c>
+      <c r="P46" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="33">
+        <v>0</v>
+      </c>
+      <c r="R46" s="33">
+        <v>1</v>
+      </c>
+      <c r="S46" s="19">
+        <v>0</v>
+      </c>
+      <c r="T46" s="19">
+        <v>1</v>
+      </c>
+      <c r="U46" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A47" s="19" t="str">
+        <v>Emil Wright</v>
+      </c>
+      <c r="B47" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C47" s="80" t="str">
+        <v>Argyle</v>
+      </c>
+      <c r="D47" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E47" s="34">
+        <v>8120</v>
+      </c>
+      <c r="F47" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G47" s="33">
+        <v>0</v>
+      </c>
+      <c r="H47" s="33">
+        <v>0</v>
+      </c>
+      <c r="I47" s="33">
+        <v>0</v>
+      </c>
+      <c r="J47" s="33">
+        <v>0</v>
+      </c>
+      <c r="K47" s="33">
+        <v>0</v>
+      </c>
+      <c r="L47" s="33">
+        <v>0</v>
+      </c>
+      <c r="M47" s="33">
+        <v>0</v>
+      </c>
+      <c r="N47" s="33">
+        <v>0</v>
+      </c>
+      <c r="O47" s="33">
+        <v>0</v>
+      </c>
+      <c r="P47" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="33">
+        <v>0</v>
+      </c>
+      <c r="R47" s="33">
+        <v>0</v>
+      </c>
+      <c r="S47" s="19">
+        <v>0</v>
+      </c>
+      <c r="T47" s="19">
+        <v>0</v>
+      </c>
+      <c r="U47" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A48" s="19" t="str">
+        <v>Brynn Loader</v>
+      </c>
+      <c r="B48" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C48" s="80" t="str">
+        <v>Argyle</v>
+      </c>
+      <c r="D48" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E48" s="34">
+        <v>8124</v>
+      </c>
+      <c r="F48" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G48" s="33">
+        <v>0</v>
+      </c>
+      <c r="H48" s="33">
+        <v>0</v>
+      </c>
+      <c r="I48" s="33">
+        <v>0</v>
+      </c>
+      <c r="J48" s="33">
+        <v>0</v>
+      </c>
+      <c r="K48" s="33">
+        <v>0</v>
+      </c>
+      <c r="L48" s="33">
+        <v>0</v>
+      </c>
+      <c r="M48" s="33">
+        <v>0</v>
+      </c>
+      <c r="N48" s="33">
+        <v>0</v>
+      </c>
+      <c r="O48" s="33">
+        <v>0</v>
+      </c>
+      <c r="P48" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="33">
+        <v>0</v>
+      </c>
+      <c r="R48" s="33">
+        <v>0</v>
+      </c>
+      <c r="S48" s="19">
+        <v>0</v>
+      </c>
+      <c r="T48" s="19">
+        <v>0</v>
+      </c>
+      <c r="U48" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A49" s="19" t="str">
+        <v>Adrien Luu</v>
+      </c>
+      <c r="B49" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C49" s="80" t="str">
+        <v>Argyle</v>
+      </c>
+      <c r="D49" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E49" s="34">
+        <v>8177</v>
+      </c>
+      <c r="F49" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G49" s="33">
+        <v>0</v>
+      </c>
+      <c r="H49" s="33">
+        <v>0</v>
+      </c>
+      <c r="I49" s="33">
+        <v>0</v>
+      </c>
+      <c r="J49" s="33">
+        <v>0</v>
+      </c>
+      <c r="K49" s="33">
+        <v>0</v>
+      </c>
+      <c r="L49" s="33">
+        <v>0</v>
+      </c>
+      <c r="M49" s="33">
+        <v>0</v>
+      </c>
+      <c r="N49" s="33">
+        <v>0</v>
+      </c>
+      <c r="O49" s="33">
+        <v>0</v>
+      </c>
+      <c r="P49" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="33">
+        <v>0</v>
+      </c>
+      <c r="R49" s="33">
+        <v>0</v>
+      </c>
+      <c r="S49" s="19">
+        <v>0</v>
+      </c>
+      <c r="T49" s="19">
+        <v>0</v>
+      </c>
+      <c r="U49" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A50" s="19" t="str">
+        <v>Alexander Chan Skadkjaer</v>
+      </c>
+      <c r="B50" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C50" s="80" t="str">
+        <v>Brockton</v>
+      </c>
+      <c r="D50" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E50" s="34">
+        <v>8009</v>
+      </c>
+      <c r="F50" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G50" s="33">
+        <v>0</v>
+      </c>
+      <c r="H50" s="33">
+        <v>0</v>
+      </c>
+      <c r="I50" s="33">
+        <v>0</v>
+      </c>
+      <c r="J50" s="33">
+        <v>0</v>
+      </c>
+      <c r="K50" s="33">
+        <v>0</v>
+      </c>
+      <c r="L50" s="33">
+        <v>0</v>
+      </c>
+      <c r="M50" s="33">
+        <v>0</v>
+      </c>
+      <c r="N50" s="33">
+        <v>0</v>
+      </c>
+      <c r="O50" s="33">
+        <v>0</v>
+      </c>
+      <c r="P50" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="33">
+        <v>0</v>
+      </c>
+      <c r="R50" s="33">
+        <v>0</v>
+      </c>
+      <c r="S50" s="19">
+        <v>0</v>
+      </c>
+      <c r="T50" s="19">
+        <v>0</v>
+      </c>
+      <c r="U50" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A51" s="19" t="str">
+        <v>William Hendricks-Ives</v>
+      </c>
+      <c r="B51" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C51" s="80" t="str">
+        <v>Brockton</v>
+      </c>
+      <c r="D51" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E51" s="34">
+        <v>8010</v>
+      </c>
+      <c r="F51" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G51" s="33">
+        <v>0</v>
+      </c>
+      <c r="H51" s="33">
+        <v>0</v>
+      </c>
+      <c r="I51" s="33">
+        <v>0</v>
+      </c>
+      <c r="J51" s="33">
+        <v>0</v>
+      </c>
+      <c r="K51" s="33">
+        <v>0</v>
+      </c>
+      <c r="L51" s="33">
+        <v>0</v>
+      </c>
+      <c r="M51" s="33">
+        <v>0</v>
+      </c>
+      <c r="N51" s="33">
+        <v>0</v>
+      </c>
+      <c r="O51" s="33">
+        <v>0</v>
+      </c>
+      <c r="P51" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="33">
+        <v>0</v>
+      </c>
+      <c r="R51" s="33">
+        <v>0</v>
+      </c>
+      <c r="S51" s="19">
+        <v>0</v>
+      </c>
+      <c r="T51" s="19">
+        <v>0</v>
+      </c>
+      <c r="U51" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A52" s="19" t="str">
+        <v>Jasper Fofonoff</v>
+      </c>
+      <c r="B52" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C52" s="80" t="str">
+        <v>Coast Mtn</v>
+      </c>
+      <c r="D52" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E52" s="34">
+        <v>8093</v>
+      </c>
+      <c r="F52" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G52" s="33">
+        <v>0</v>
+      </c>
+      <c r="H52" s="33">
+        <v>0</v>
+      </c>
+      <c r="I52" s="33">
+        <v>0</v>
+      </c>
+      <c r="J52" s="33">
+        <v>0</v>
+      </c>
+      <c r="K52" s="33">
+        <v>0</v>
+      </c>
+      <c r="L52" s="33">
+        <v>0</v>
+      </c>
+      <c r="M52" s="33">
+        <v>0</v>
+      </c>
+      <c r="N52" s="33">
+        <v>0</v>
+      </c>
+      <c r="O52" s="33">
+        <v>0</v>
+      </c>
+      <c r="P52" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="33">
+        <v>0</v>
+      </c>
+      <c r="R52" s="33">
+        <v>0</v>
+      </c>
+      <c r="S52" s="19">
+        <v>0</v>
+      </c>
+      <c r="T52" s="19">
+        <v>0</v>
+      </c>
+      <c r="U52" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A53" s="19" t="str">
+        <v>Tavian Haddad</v>
+      </c>
+      <c r="B53" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C53" s="80" t="str">
+        <v>Collingwood</v>
+      </c>
+      <c r="D53" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E53" s="34">
+        <v>8127</v>
+      </c>
+      <c r="F53" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G53" s="33">
+        <v>0</v>
+      </c>
+      <c r="H53" s="33">
+        <v>0</v>
+      </c>
+      <c r="I53" s="33">
+        <v>0</v>
+      </c>
+      <c r="J53" s="33">
+        <v>0</v>
+      </c>
+      <c r="K53" s="33">
+        <v>0</v>
+      </c>
+      <c r="L53" s="33">
+        <v>0</v>
+      </c>
+      <c r="M53" s="33">
+        <v>0</v>
+      </c>
+      <c r="N53" s="33">
+        <v>0</v>
+      </c>
+      <c r="O53" s="33">
+        <v>0</v>
+      </c>
+      <c r="P53" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="33">
+        <v>0</v>
+      </c>
+      <c r="R53" s="33">
+        <v>0</v>
+      </c>
+      <c r="S53" s="19">
+        <v>0</v>
+      </c>
+      <c r="T53" s="19">
+        <v>0</v>
+      </c>
+      <c r="U53" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A54" s="19" t="str">
+        <v>Braden Hope</v>
+      </c>
+      <c r="B54" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C54" s="80" t="str">
+        <v xml:space="preserve">Don Ross  </v>
+      </c>
+      <c r="D54" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E54" s="34">
+        <v>8130</v>
+      </c>
+      <c r="F54" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G54" s="33">
+        <v>0</v>
+      </c>
+      <c r="H54" s="33">
+        <v>0</v>
+      </c>
+      <c r="I54" s="33">
+        <v>0</v>
+      </c>
+      <c r="J54" s="33">
+        <v>0</v>
+      </c>
+      <c r="K54" s="33">
+        <v>0</v>
+      </c>
+      <c r="L54" s="33">
+        <v>0</v>
+      </c>
+      <c r="M54" s="33">
+        <v>0</v>
+      </c>
+      <c r="N54" s="33">
+        <v>0</v>
+      </c>
+      <c r="O54" s="33">
+        <v>0</v>
+      </c>
+      <c r="P54" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="33">
+        <v>0</v>
+      </c>
+      <c r="R54" s="33">
+        <v>0</v>
+      </c>
+      <c r="S54" s="19">
+        <v>0</v>
+      </c>
+      <c r="T54" s="19">
+        <v>0</v>
+      </c>
+      <c r="U54" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A55" s="19" t="str">
+        <v>Jack Westwood</v>
+      </c>
+      <c r="B55" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C55" s="80" t="str">
+        <v xml:space="preserve">Don Ross  </v>
+      </c>
+      <c r="D55" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E55" s="34">
+        <v>8131</v>
+      </c>
+      <c r="F55" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G55" s="33">
+        <v>0</v>
+      </c>
+      <c r="H55" s="33">
+        <v>0</v>
+      </c>
+      <c r="I55" s="33">
+        <v>0</v>
+      </c>
+      <c r="J55" s="33">
+        <v>0</v>
+      </c>
+      <c r="K55" s="33">
+        <v>0</v>
+      </c>
+      <c r="L55" s="33">
+        <v>0</v>
+      </c>
+      <c r="M55" s="33">
+        <v>0</v>
+      </c>
+      <c r="N55" s="33">
+        <v>0</v>
+      </c>
+      <c r="O55" s="33">
+        <v>0</v>
+      </c>
+      <c r="P55" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="33">
+        <v>0</v>
+      </c>
+      <c r="R55" s="33">
+        <v>0</v>
+      </c>
+      <c r="S55" s="19">
+        <v>0</v>
+      </c>
+      <c r="T55" s="19">
+        <v>0</v>
+      </c>
+      <c r="U55" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A56" s="19" t="str">
+        <v>Nash Furneaux</v>
+      </c>
+      <c r="B56" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C56" s="80" t="str">
+        <v xml:space="preserve">Don Ross  </v>
+      </c>
+      <c r="D56" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E56" s="34">
+        <v>8132</v>
+      </c>
+      <c r="F56" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G56" s="33">
+        <v>0</v>
+      </c>
+      <c r="H56" s="33">
+        <v>0</v>
+      </c>
+      <c r="I56" s="33">
+        <v>0</v>
+      </c>
+      <c r="J56" s="33">
+        <v>0</v>
+      </c>
+      <c r="K56" s="33">
+        <v>0</v>
+      </c>
+      <c r="L56" s="33">
+        <v>0</v>
+      </c>
+      <c r="M56" s="33">
+        <v>0</v>
+      </c>
+      <c r="N56" s="33">
+        <v>0</v>
+      </c>
+      <c r="O56" s="33">
+        <v>0</v>
+      </c>
+      <c r="P56" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="33">
+        <v>0</v>
+      </c>
+      <c r="R56" s="33">
+        <v>0</v>
+      </c>
+      <c r="S56" s="19">
+        <v>0</v>
+      </c>
+      <c r="T56" s="19">
+        <v>0</v>
+      </c>
+      <c r="U56" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A57" s="19" t="str">
+        <v>Olivier Courcelles</v>
+      </c>
+      <c r="B57" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C57" s="80" t="str">
+        <v xml:space="preserve">Don Ross  </v>
+      </c>
+      <c r="D57" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E57" s="34">
+        <v>8133</v>
+      </c>
+      <c r="F57" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G57" s="33">
+        <v>0</v>
+      </c>
+      <c r="H57" s="33">
+        <v>0</v>
+      </c>
+      <c r="I57" s="33">
+        <v>0</v>
+      </c>
+      <c r="J57" s="33">
+        <v>0</v>
+      </c>
+      <c r="K57" s="33">
+        <v>0</v>
+      </c>
+      <c r="L57" s="33">
+        <v>0</v>
+      </c>
+      <c r="M57" s="33">
+        <v>0</v>
+      </c>
+      <c r="N57" s="33">
+        <v>0</v>
+      </c>
+      <c r="O57" s="33">
+        <v>0</v>
+      </c>
+      <c r="P57" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="33">
+        <v>0</v>
+      </c>
+      <c r="R57" s="33">
+        <v>0</v>
+      </c>
+      <c r="S57" s="19">
+        <v>0</v>
+      </c>
+      <c r="T57" s="19">
+        <v>0</v>
+      </c>
+      <c r="U57" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A58" s="19" t="str">
+        <v>Benardo Gomes</v>
+      </c>
+      <c r="B58" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C58" s="80" t="str">
+        <v xml:space="preserve">Don Ross  </v>
+      </c>
+      <c r="D58" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E58" s="34">
+        <v>8135</v>
+      </c>
+      <c r="F58" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G58" s="33">
+        <v>0</v>
+      </c>
+      <c r="H58" s="33">
+        <v>0</v>
+      </c>
+      <c r="I58" s="33">
+        <v>0</v>
+      </c>
+      <c r="J58" s="33">
+        <v>0</v>
+      </c>
+      <c r="K58" s="33">
+        <v>0</v>
+      </c>
+      <c r="L58" s="33">
+        <v>0</v>
+      </c>
+      <c r="M58" s="33">
+        <v>0</v>
+      </c>
+      <c r="N58" s="33">
+        <v>0</v>
+      </c>
+      <c r="O58" s="33">
+        <v>0</v>
+      </c>
+      <c r="P58" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="33">
+        <v>0</v>
+      </c>
+      <c r="R58" s="33">
+        <v>0</v>
+      </c>
+      <c r="S58" s="19">
+        <v>0</v>
+      </c>
+      <c r="T58" s="19">
+        <v>0</v>
+      </c>
+      <c r="U58" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A59" s="19" t="str">
+        <v>Peter Miller</v>
+      </c>
+      <c r="B59" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C59" s="80" t="str">
+        <v>Elphinstone</v>
+      </c>
+      <c r="D59" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E59" s="34">
+        <v>8136</v>
+      </c>
+      <c r="F59" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G59" s="33">
+        <v>0</v>
+      </c>
+      <c r="H59" s="33">
+        <v>0</v>
+      </c>
+      <c r="I59" s="33">
+        <v>0</v>
+      </c>
+      <c r="J59" s="33">
+        <v>0</v>
+      </c>
+      <c r="K59" s="33">
+        <v>0</v>
+      </c>
+      <c r="L59" s="33">
+        <v>0</v>
+      </c>
+      <c r="M59" s="33">
+        <v>0</v>
+      </c>
+      <c r="N59" s="33">
+        <v>0</v>
+      </c>
+      <c r="O59" s="33">
+        <v>0</v>
+      </c>
+      <c r="P59" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="33">
+        <v>0</v>
+      </c>
+      <c r="R59" s="33">
+        <v>0</v>
+      </c>
+      <c r="S59" s="19">
+        <v>0</v>
+      </c>
+      <c r="T59" s="19">
+        <v>0</v>
+      </c>
+      <c r="U59" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A60" s="19" t="str">
+        <v>Emile Morisset</v>
+      </c>
+      <c r="B60" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C60" s="80" t="str">
+        <v>Handsworth</v>
+      </c>
+      <c r="D60" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E60" s="34">
+        <v>8140</v>
+      </c>
+      <c r="F60" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G60" s="33">
+        <v>0</v>
+      </c>
+      <c r="H60" s="33">
+        <v>0</v>
+      </c>
+      <c r="I60" s="33">
+        <v>0</v>
+      </c>
+      <c r="J60" s="33">
+        <v>0</v>
+      </c>
+      <c r="K60" s="33">
+        <v>0</v>
+      </c>
+      <c r="L60" s="33">
+        <v>0</v>
+      </c>
+      <c r="M60" s="33">
+        <v>0</v>
+      </c>
+      <c r="N60" s="33">
+        <v>0</v>
+      </c>
+      <c r="O60" s="33">
+        <v>0</v>
+      </c>
+      <c r="P60" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="33">
+        <v>0</v>
+      </c>
+      <c r="R60" s="33">
+        <v>0</v>
+      </c>
+      <c r="S60" s="19">
+        <v>0</v>
+      </c>
+      <c r="T60" s="19">
+        <v>0</v>
+      </c>
+      <c r="U60" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A61" s="19" t="str">
+        <v>Tavish Bubbs</v>
+      </c>
+      <c r="B61" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C61" s="80" t="str">
+        <v xml:space="preserve">Pemberton  </v>
+      </c>
+      <c r="D61" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E61" s="34">
+        <v>8146</v>
+      </c>
+      <c r="F61" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G61" s="33">
+        <v>0</v>
+      </c>
+      <c r="H61" s="33">
+        <v>0</v>
+      </c>
+      <c r="I61" s="33">
+        <v>0</v>
+      </c>
+      <c r="J61" s="33">
+        <v>0</v>
+      </c>
+      <c r="K61" s="33">
+        <v>0</v>
+      </c>
+      <c r="L61" s="33">
+        <v>0</v>
+      </c>
+      <c r="M61" s="33">
+        <v>0</v>
+      </c>
+      <c r="N61" s="33">
+        <v>0</v>
+      </c>
+      <c r="O61" s="33">
+        <v>0</v>
+      </c>
+      <c r="P61" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="33">
+        <v>0</v>
+      </c>
+      <c r="R61" s="33">
+        <v>0</v>
+      </c>
+      <c r="S61" s="19">
+        <v>0</v>
+      </c>
+      <c r="T61" s="19">
+        <v>0</v>
+      </c>
+      <c r="U61" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A62" s="19" t="str">
+        <v>Mack Manietta</v>
+      </c>
+      <c r="B62" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C62" s="80" t="str">
+        <v xml:space="preserve">Pemberton  </v>
+      </c>
+      <c r="D62" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E62" s="34">
+        <v>8147</v>
+      </c>
+      <c r="F62" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G62" s="33">
+        <v>0</v>
+      </c>
+      <c r="H62" s="33">
+        <v>0</v>
+      </c>
+      <c r="I62" s="33">
+        <v>0</v>
+      </c>
+      <c r="J62" s="33">
+        <v>0</v>
+      </c>
+      <c r="K62" s="33">
+        <v>0</v>
+      </c>
+      <c r="L62" s="33">
+        <v>0</v>
+      </c>
+      <c r="M62" s="33">
+        <v>0</v>
+      </c>
+      <c r="N62" s="33">
+        <v>0</v>
+      </c>
+      <c r="O62" s="33">
+        <v>0</v>
+      </c>
+      <c r="P62" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="33">
+        <v>0</v>
+      </c>
+      <c r="R62" s="33">
+        <v>0</v>
+      </c>
+      <c r="S62" s="19">
+        <v>0</v>
+      </c>
+      <c r="T62" s="19">
+        <v>0</v>
+      </c>
+      <c r="U62" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A63" s="19" t="str">
+        <v>Henri Teitzel</v>
+      </c>
+      <c r="B63" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C63" s="80" t="str">
+        <v xml:space="preserve">Pemberton  </v>
+      </c>
+      <c r="D63" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E63" s="34">
+        <v>8148</v>
+      </c>
+      <c r="F63" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G63" s="33">
+        <v>0</v>
+      </c>
+      <c r="H63" s="33">
+        <v>0</v>
+      </c>
+      <c r="I63" s="33">
+        <v>0</v>
+      </c>
+      <c r="J63" s="33">
+        <v>0</v>
+      </c>
+      <c r="K63" s="33">
+        <v>0</v>
+      </c>
+      <c r="L63" s="33">
+        <v>0</v>
+      </c>
+      <c r="M63" s="33">
+        <v>0</v>
+      </c>
+      <c r="N63" s="33">
+        <v>0</v>
+      </c>
+      <c r="O63" s="33">
+        <v>0</v>
+      </c>
+      <c r="P63" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="33">
+        <v>0</v>
+      </c>
+      <c r="R63" s="33">
+        <v>0</v>
+      </c>
+      <c r="S63" s="19">
+        <v>0</v>
+      </c>
+      <c r="T63" s="19">
+        <v>0</v>
+      </c>
+      <c r="U63" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A64" s="19" t="str">
+        <v xml:space="preserve">Owen Kainer </v>
+      </c>
+      <c r="B64" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C64" s="80" t="str">
+        <v>Seycove</v>
+      </c>
+      <c r="D64" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E64" s="34">
+        <v>8154</v>
+      </c>
+      <c r="F64" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G64" s="33">
+        <v>0</v>
+      </c>
+      <c r="H64" s="33">
+        <v>0</v>
+      </c>
+      <c r="I64" s="33">
+        <v>0</v>
+      </c>
+      <c r="J64" s="33">
+        <v>0</v>
+      </c>
+      <c r="K64" s="33">
+        <v>0</v>
+      </c>
+      <c r="L64" s="33">
+        <v>0</v>
+      </c>
+      <c r="M64" s="33">
+        <v>0</v>
+      </c>
+      <c r="N64" s="33">
+        <v>0</v>
+      </c>
+      <c r="O64" s="33">
+        <v>0</v>
+      </c>
+      <c r="P64" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="33">
+        <v>0</v>
+      </c>
+      <c r="R64" s="33">
+        <v>0</v>
+      </c>
+      <c r="S64" s="19">
+        <v>0</v>
+      </c>
+      <c r="T64" s="19">
+        <v>0</v>
+      </c>
+      <c r="U64" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A65" s="19" t="str">
+        <v>Jackson Bozzer</v>
+      </c>
+      <c r="B65" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C65" s="80" t="str">
+        <v>St. Georges</v>
+      </c>
+      <c r="D65" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E65" s="34">
+        <v>8158</v>
+      </c>
+      <c r="F65" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G65" s="33">
+        <v>0</v>
+      </c>
+      <c r="H65" s="33">
+        <v>0</v>
+      </c>
+      <c r="I65" s="33">
+        <v>0</v>
+      </c>
+      <c r="J65" s="33">
+        <v>0</v>
+      </c>
+      <c r="K65" s="33">
+        <v>0</v>
+      </c>
+      <c r="L65" s="33">
+        <v>0</v>
+      </c>
+      <c r="M65" s="33">
+        <v>0</v>
+      </c>
+      <c r="N65" s="33">
+        <v>0</v>
+      </c>
+      <c r="O65" s="33">
+        <v>0</v>
+      </c>
+      <c r="P65" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="33">
+        <v>0</v>
+      </c>
+      <c r="R65" s="33">
+        <v>0</v>
+      </c>
+      <c r="S65" s="19">
+        <v>0</v>
+      </c>
+      <c r="T65" s="19">
+        <v>0</v>
+      </c>
+      <c r="U65" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A66" s="19" t="str">
+        <v>Owen White</v>
+      </c>
+      <c r="B66" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C66" s="80" t="str">
+        <v>Whistler</v>
+      </c>
+      <c r="D66" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E66" s="34">
+        <v>8173</v>
+      </c>
+      <c r="F66" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G66" s="33">
+        <v>0</v>
+      </c>
+      <c r="H66" s="33">
+        <v>0</v>
+      </c>
+      <c r="I66" s="33">
+        <v>0</v>
+      </c>
+      <c r="J66" s="33">
+        <v>0</v>
+      </c>
+      <c r="K66" s="33">
+        <v>0</v>
+      </c>
+      <c r="L66" s="33">
+        <v>0</v>
+      </c>
+      <c r="M66" s="33">
+        <v>0</v>
+      </c>
+      <c r="N66" s="33">
+        <v>0</v>
+      </c>
+      <c r="O66" s="33">
+        <v>0</v>
+      </c>
+      <c r="P66" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="33">
+        <v>0</v>
+      </c>
+      <c r="R66" s="33">
+        <v>0</v>
+      </c>
+      <c r="S66" s="19">
+        <v>0</v>
+      </c>
+      <c r="T66" s="19">
+        <v>0</v>
+      </c>
+      <c r="U66" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A67" s="19" t="str">
+        <v>Everest Crane</v>
+      </c>
+      <c r="B67" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C67" s="80" t="str">
+        <v>Whistler</v>
+      </c>
+      <c r="D67" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E67" s="34">
+        <v>8174</v>
+      </c>
+      <c r="F67" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G67" s="33">
+        <v>0</v>
+      </c>
+      <c r="H67" s="33">
+        <v>0</v>
+      </c>
+      <c r="I67" s="33">
+        <v>0</v>
+      </c>
+      <c r="J67" s="33">
+        <v>0</v>
+      </c>
+      <c r="K67" s="33">
+        <v>0</v>
+      </c>
+      <c r="L67" s="33">
+        <v>0</v>
+      </c>
+      <c r="M67" s="33">
+        <v>0</v>
+      </c>
+      <c r="N67" s="33">
+        <v>0</v>
+      </c>
+      <c r="O67" s="33">
+        <v>0</v>
+      </c>
+      <c r="P67" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="33">
+        <v>0</v>
+      </c>
+      <c r="R67" s="33">
+        <v>0</v>
+      </c>
+      <c r="S67" s="19">
+        <v>0</v>
+      </c>
+      <c r="T67" s="19">
+        <v>0</v>
+      </c>
+      <c r="U67" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A68" s="19" t="str">
+        <v>Rafe Dykstra</v>
+      </c>
+      <c r="B68" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C68" s="80" t="str">
+        <v>Windsor</v>
+      </c>
+      <c r="D68" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E68" s="34">
+        <v>8176</v>
+      </c>
+      <c r="F68" s="33" t="str">
+        <v>DNR</v>
+      </c>
+      <c r="G68" s="33">
+        <v>0</v>
+      </c>
+      <c r="H68" s="33">
+        <v>0</v>
+      </c>
+      <c r="I68" s="33">
+        <v>0</v>
+      </c>
+      <c r="J68" s="33">
+        <v>0</v>
+      </c>
+      <c r="K68" s="33">
+        <v>0</v>
+      </c>
+      <c r="L68" s="33">
+        <v>0</v>
+      </c>
+      <c r="M68" s="33">
+        <v>0</v>
+      </c>
+      <c r="N68" s="33">
+        <v>0</v>
+      </c>
+      <c r="O68" s="33">
+        <v>0</v>
+      </c>
+      <c r="P68" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="33">
+        <v>0</v>
+      </c>
+      <c r="R68" s="33">
+        <v>0</v>
+      </c>
+      <c r="S68" s="19">
+        <v>0</v>
+      </c>
+      <c r="T68" s="19">
+        <v>0</v>
+      </c>
+      <c r="U68" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A69" s="19" t="str">
+        <v>Oliver Parkinson</v>
+      </c>
+      <c r="B69" s="19" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="C69" s="80" t="str">
+        <v>Seycove</v>
+      </c>
+      <c r="D69" s="33" t="str">
+        <v>Bant Boys</v>
+      </c>
+      <c r="E69" s="34">
+        <v>8179</v>
+      </c>
+      <c r="F69" s="33">
+        <v>43</v>
+      </c>
+      <c r="G69" s="33">
+        <v>17</v>
+      </c>
+      <c r="H69" s="33">
+        <v>0</v>
+      </c>
+      <c r="I69" s="33">
+        <v>0</v>
+      </c>
+      <c r="J69" s="33">
+        <v>0</v>
+      </c>
+      <c r="K69" s="33">
+        <v>0</v>
+      </c>
+      <c r="L69" s="33">
+        <v>0</v>
+      </c>
+      <c r="M69" s="33">
+        <v>0</v>
+      </c>
+      <c r="N69" s="33">
+        <v>0</v>
+      </c>
+      <c r="O69" s="33">
+        <v>0</v>
+      </c>
+      <c r="P69" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="33">
+        <v>0</v>
+      </c>
+      <c r="R69" s="33">
+        <v>0</v>
+      </c>
+      <c r="S69" s="19">
+        <v>0</v>
+      </c>
+      <c r="T69" s="19">
+        <v>0</v>
+      </c>
+      <c r="U69" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P70" s="33"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P71" s="33"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P72" s="33"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P73" s="33"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P74" s="33"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P75" s="33"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P76" s="33"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P77" s="33"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P78" s="33"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P79" s="33"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="P80" s="33"/>
+    </row>
+    <row r="81" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P81" s="33"/>
+    </row>
+    <row r="82" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P82" s="33"/>
+    </row>
+    <row r="83" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P83" s="33"/>
+    </row>
+    <row r="84" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P84" s="33"/>
+    </row>
+    <row r="85" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P85" s="33"/>
+    </row>
+    <row r="86" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P86" s="33"/>
+    </row>
+    <row r="87" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P87" s="33"/>
+    </row>
+    <row r="88" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P88" s="33"/>
+    </row>
+    <row r="89" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P89" s="33"/>
+    </row>
+    <row r="90" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P90" s="33"/>
+    </row>
+    <row r="91" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P91" s="33"/>
+    </row>
+    <row r="92" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P92" s="33"/>
+    </row>
+    <row r="93" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P93" s="33"/>
+    </row>
+    <row r="94" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P94" s="33"/>
+    </row>
+    <row r="95" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P95" s="33"/>
+    </row>
+    <row r="96" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P96" s="33"/>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P97" s="33"/>
+    </row>
+    <row r="98" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P98" s="33"/>
+    </row>
+    <row r="99" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P99" s="33"/>
+    </row>
+    <row r="100" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P100" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2426855C-7EAF-445C-8877-FB69F0F4DB09}">
+          <x14:formula1>
+            <xm:f>Lists!$A$1:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C807E2-9D8B-4820-9B4A-3D4F64F10F5D}">
   <dimension ref="A1:T106"/>
   <sheetViews>
@@ -36249,4519 +40762,6 @@
             <xm:f>Lists!$E$1:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>M1</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BF49D3-49F2-4B3E-9EF9-46E58C1E4644}">
-  <dimension ref="A1:U100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="19" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="80" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="34"/>
-    <col min="6" max="15" width="8.88671875" style="33"/>
-    <col min="16" max="16" width="8.88671875" style="19"/>
-    <col min="17" max="18" width="8.88671875" style="33"/>
-    <col min="19" max="16384" width="8.88671875" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-    </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="str" cm="1">
-        <f t="array" ref="A4:U69">_xlfn._xlws.SORT(
-  _xlfn._xlws.FILTER('Individual Results'!A2:U501, 'Individual Results'!B2:B501 = $C$1),
-  20, -1
-)</f>
-        <v>Finlay Wood</v>
-      </c>
-      <c r="B4" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C4" s="80" t="str">
-        <v xml:space="preserve">Pemberton  </v>
-      </c>
-      <c r="D4" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E4" s="34">
-        <v>8149</v>
-      </c>
-      <c r="F4" s="33">
-        <v>1</v>
-      </c>
-      <c r="G4" s="33">
-        <v>100</v>
-      </c>
-      <c r="H4" s="33">
-        <v>0</v>
-      </c>
-      <c r="I4" s="33">
-        <v>0</v>
-      </c>
-      <c r="J4" s="33">
-        <v>0</v>
-      </c>
-      <c r="K4" s="33">
-        <v>0</v>
-      </c>
-      <c r="L4" s="33">
-        <v>0</v>
-      </c>
-      <c r="M4" s="33">
-        <v>0</v>
-      </c>
-      <c r="N4" s="33">
-        <v>0</v>
-      </c>
-      <c r="O4" s="33">
-        <v>0</v>
-      </c>
-      <c r="P4" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="33">
-        <v>0</v>
-      </c>
-      <c r="R4" s="33">
-        <v>100</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19">
-        <v>100</v>
-      </c>
-      <c r="U4" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="str">
-        <v>Sacha Strajt-Bornik</v>
-      </c>
-      <c r="B5" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C5" s="80" t="str">
-        <v>Argyle</v>
-      </c>
-      <c r="D5" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E5" s="34">
-        <v>8121</v>
-      </c>
-      <c r="F5" s="33">
-        <v>2</v>
-      </c>
-      <c r="G5" s="33">
-        <v>95</v>
-      </c>
-      <c r="H5" s="33">
-        <v>0</v>
-      </c>
-      <c r="I5" s="33">
-        <v>0</v>
-      </c>
-      <c r="J5" s="33">
-        <v>0</v>
-      </c>
-      <c r="K5" s="33">
-        <v>0</v>
-      </c>
-      <c r="L5" s="33">
-        <v>0</v>
-      </c>
-      <c r="M5" s="33">
-        <v>0</v>
-      </c>
-      <c r="N5" s="33">
-        <v>0</v>
-      </c>
-      <c r="O5" s="33">
-        <v>0</v>
-      </c>
-      <c r="P5" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="33">
-        <v>0</v>
-      </c>
-      <c r="R5" s="33">
-        <v>95</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>95</v>
-      </c>
-      <c r="U5" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="str">
-        <v>Alexandre Comeau</v>
-      </c>
-      <c r="B6" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C6" s="80" t="str">
-        <v>Handsworth</v>
-      </c>
-      <c r="D6" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E6" s="34">
-        <v>8137</v>
-      </c>
-      <c r="F6" s="33">
-        <v>3</v>
-      </c>
-      <c r="G6" s="33">
-        <v>90</v>
-      </c>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="33">
-        <v>0</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0</v>
-      </c>
-      <c r="L6" s="33">
-        <v>0</v>
-      </c>
-      <c r="M6" s="33">
-        <v>0</v>
-      </c>
-      <c r="N6" s="33">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33">
-        <v>0</v>
-      </c>
-      <c r="P6" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="33">
-        <v>0</v>
-      </c>
-      <c r="R6" s="33">
-        <v>90</v>
-      </c>
-      <c r="S6" s="19">
-        <v>0</v>
-      </c>
-      <c r="T6" s="19">
-        <v>90</v>
-      </c>
-      <c r="U6" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="str">
-        <v>Matthew Crockford</v>
-      </c>
-      <c r="B7" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C7" s="80" t="str">
-        <v>Argyle</v>
-      </c>
-      <c r="D7" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E7" s="34">
-        <v>8122</v>
-      </c>
-      <c r="F7" s="33">
-        <v>4</v>
-      </c>
-      <c r="G7" s="33">
-        <v>85</v>
-      </c>
-      <c r="H7" s="33">
-        <v>0</v>
-      </c>
-      <c r="I7" s="33">
-        <v>0</v>
-      </c>
-      <c r="J7" s="33">
-        <v>0</v>
-      </c>
-      <c r="K7" s="33">
-        <v>0</v>
-      </c>
-      <c r="L7" s="33">
-        <v>0</v>
-      </c>
-      <c r="M7" s="33">
-        <v>0</v>
-      </c>
-      <c r="N7" s="33">
-        <v>0</v>
-      </c>
-      <c r="O7" s="33">
-        <v>0</v>
-      </c>
-      <c r="P7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="33">
-        <v>0</v>
-      </c>
-      <c r="R7" s="33">
-        <v>85</v>
-      </c>
-      <c r="S7" s="19">
-        <v>0</v>
-      </c>
-      <c r="T7" s="19">
-        <v>85</v>
-      </c>
-      <c r="U7" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="str">
-        <v>John Suda</v>
-      </c>
-      <c r="B8" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C8" s="80" t="str">
-        <v>STA</v>
-      </c>
-      <c r="D8" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E8" s="34">
-        <v>8163</v>
-      </c>
-      <c r="F8" s="33">
-        <v>5</v>
-      </c>
-      <c r="G8" s="33">
-        <v>80</v>
-      </c>
-      <c r="H8" s="33">
-        <v>0</v>
-      </c>
-      <c r="I8" s="33">
-        <v>0</v>
-      </c>
-      <c r="J8" s="33">
-        <v>0</v>
-      </c>
-      <c r="K8" s="33">
-        <v>0</v>
-      </c>
-      <c r="L8" s="33">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33">
-        <v>0</v>
-      </c>
-      <c r="N8" s="33">
-        <v>0</v>
-      </c>
-      <c r="O8" s="33">
-        <v>0</v>
-      </c>
-      <c r="P8" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>0</v>
-      </c>
-      <c r="R8" s="33">
-        <v>80</v>
-      </c>
-      <c r="S8" s="19">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19">
-        <v>80</v>
-      </c>
-      <c r="U8" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="str">
-        <v>Xavier Zibert</v>
-      </c>
-      <c r="B9" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C9" s="80" t="str">
-        <v>STA</v>
-      </c>
-      <c r="D9" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E9" s="34">
-        <v>8165</v>
-      </c>
-      <c r="F9" s="33">
-        <v>6</v>
-      </c>
-      <c r="G9" s="33">
-        <v>75</v>
-      </c>
-      <c r="H9" s="33">
-        <v>0</v>
-      </c>
-      <c r="I9" s="33">
-        <v>0</v>
-      </c>
-      <c r="J9" s="33">
-        <v>0</v>
-      </c>
-      <c r="K9" s="33">
-        <v>0</v>
-      </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>0</v>
-      </c>
-      <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <v>0</v>
-      </c>
-      <c r="P9" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>0</v>
-      </c>
-      <c r="R9" s="33">
-        <v>75</v>
-      </c>
-      <c r="S9" s="19">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <v>75</v>
-      </c>
-      <c r="U9" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="str">
-        <v>Thomson Bythell</v>
-      </c>
-      <c r="B10" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C10" s="80" t="str">
-        <v xml:space="preserve">Don Ross  </v>
-      </c>
-      <c r="D10" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E10" s="34">
-        <v>8134</v>
-      </c>
-      <c r="F10" s="33">
-        <v>7</v>
-      </c>
-      <c r="G10" s="33">
-        <v>70</v>
-      </c>
-      <c r="H10" s="33">
-        <v>0</v>
-      </c>
-      <c r="I10" s="33">
-        <v>0</v>
-      </c>
-      <c r="J10" s="33">
-        <v>0</v>
-      </c>
-      <c r="K10" s="33">
-        <v>0</v>
-      </c>
-      <c r="L10" s="33">
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
-        <v>0</v>
-      </c>
-      <c r="N10" s="33">
-        <v>0</v>
-      </c>
-      <c r="O10" s="33">
-        <v>0</v>
-      </c>
-      <c r="P10" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="33">
-        <v>0</v>
-      </c>
-      <c r="R10" s="33">
-        <v>70</v>
-      </c>
-      <c r="S10" s="19">
-        <v>0</v>
-      </c>
-      <c r="T10" s="19">
-        <v>70</v>
-      </c>
-      <c r="U10" s="19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A11" s="19" t="str">
-        <v>Landon Brown</v>
-      </c>
-      <c r="B11" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C11" s="80" t="str">
-        <v>STA</v>
-      </c>
-      <c r="D11" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E11" s="34">
-        <v>8159</v>
-      </c>
-      <c r="F11" s="33">
-        <v>8</v>
-      </c>
-      <c r="G11" s="33">
-        <v>65</v>
-      </c>
-      <c r="H11" s="33">
-        <v>0</v>
-      </c>
-      <c r="I11" s="33">
-        <v>0</v>
-      </c>
-      <c r="J11" s="33">
-        <v>0</v>
-      </c>
-      <c r="K11" s="33">
-        <v>0</v>
-      </c>
-      <c r="L11" s="33">
-        <v>0</v>
-      </c>
-      <c r="M11" s="33">
-        <v>0</v>
-      </c>
-      <c r="N11" s="33">
-        <v>0</v>
-      </c>
-      <c r="O11" s="33">
-        <v>0</v>
-      </c>
-      <c r="P11" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="33">
-        <v>0</v>
-      </c>
-      <c r="R11" s="33">
-        <v>65</v>
-      </c>
-      <c r="S11" s="19">
-        <v>0</v>
-      </c>
-      <c r="T11" s="19">
-        <v>65</v>
-      </c>
-      <c r="U11" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="str">
-        <v>Aiden Klimek</v>
-      </c>
-      <c r="B12" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C12" s="80" t="str">
-        <v>Mulgrave</v>
-      </c>
-      <c r="D12" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E12" s="34">
-        <v>8144</v>
-      </c>
-      <c r="F12" s="33">
-        <v>9</v>
-      </c>
-      <c r="G12" s="33">
-        <v>60</v>
-      </c>
-      <c r="H12" s="33">
-        <v>0</v>
-      </c>
-      <c r="I12" s="33">
-        <v>0</v>
-      </c>
-      <c r="J12" s="33">
-        <v>0</v>
-      </c>
-      <c r="K12" s="33">
-        <v>0</v>
-      </c>
-      <c r="L12" s="33">
-        <v>0</v>
-      </c>
-      <c r="M12" s="33">
-        <v>0</v>
-      </c>
-      <c r="N12" s="33">
-        <v>0</v>
-      </c>
-      <c r="O12" s="33">
-        <v>0</v>
-      </c>
-      <c r="P12" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="33">
-        <v>0</v>
-      </c>
-      <c r="R12" s="33">
-        <v>60</v>
-      </c>
-      <c r="S12" s="19">
-        <v>0</v>
-      </c>
-      <c r="T12" s="19">
-        <v>60</v>
-      </c>
-      <c r="U12" s="19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="str">
-        <v>Elliot O'Hara</v>
-      </c>
-      <c r="B13" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C13" s="80" t="str">
-        <v>STA</v>
-      </c>
-      <c r="D13" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E13" s="34">
-        <v>8161</v>
-      </c>
-      <c r="F13" s="33">
-        <v>10</v>
-      </c>
-      <c r="G13" s="33">
-        <v>55</v>
-      </c>
-      <c r="H13" s="33">
-        <v>0</v>
-      </c>
-      <c r="I13" s="33">
-        <v>0</v>
-      </c>
-      <c r="J13" s="33">
-        <v>0</v>
-      </c>
-      <c r="K13" s="33">
-        <v>0</v>
-      </c>
-      <c r="L13" s="33">
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <v>0</v>
-      </c>
-      <c r="N13" s="33">
-        <v>0</v>
-      </c>
-      <c r="O13" s="33">
-        <v>0</v>
-      </c>
-      <c r="P13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="33">
-        <v>0</v>
-      </c>
-      <c r="R13" s="33">
-        <v>55</v>
-      </c>
-      <c r="S13" s="19">
-        <v>0</v>
-      </c>
-      <c r="T13" s="19">
-        <v>55</v>
-      </c>
-      <c r="U13" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="str">
-        <v>Lucas Norbert</v>
-      </c>
-      <c r="B14" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C14" s="80" t="str">
-        <v>Seycove</v>
-      </c>
-      <c r="D14" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E14" s="34">
-        <v>8156</v>
-      </c>
-      <c r="F14" s="33">
-        <v>11</v>
-      </c>
-      <c r="G14" s="33">
-        <v>53</v>
-      </c>
-      <c r="H14" s="33">
-        <v>0</v>
-      </c>
-      <c r="I14" s="33">
-        <v>0</v>
-      </c>
-      <c r="J14" s="33">
-        <v>0</v>
-      </c>
-      <c r="K14" s="33">
-        <v>0</v>
-      </c>
-      <c r="L14" s="33">
-        <v>0</v>
-      </c>
-      <c r="M14" s="33">
-        <v>0</v>
-      </c>
-      <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="33">
-        <v>0</v>
-      </c>
-      <c r="P14" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="33">
-        <v>0</v>
-      </c>
-      <c r="R14" s="33">
-        <v>53</v>
-      </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
-        <v>53</v>
-      </c>
-      <c r="U14" s="19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="str">
-        <v>Daniel Gold</v>
-      </c>
-      <c r="B15" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C15" s="80" t="str">
-        <v>Handsworth</v>
-      </c>
-      <c r="D15" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E15" s="34">
-        <v>8178</v>
-      </c>
-      <c r="F15" s="33">
-        <v>13</v>
-      </c>
-      <c r="G15" s="33">
-        <v>49</v>
-      </c>
-      <c r="H15" s="33">
-        <v>0</v>
-      </c>
-      <c r="I15" s="33">
-        <v>0</v>
-      </c>
-      <c r="J15" s="33">
-        <v>0</v>
-      </c>
-      <c r="K15" s="33">
-        <v>0</v>
-      </c>
-      <c r="L15" s="33">
-        <v>0</v>
-      </c>
-      <c r="M15" s="33">
-        <v>0</v>
-      </c>
-      <c r="N15" s="33">
-        <v>0</v>
-      </c>
-      <c r="O15" s="33">
-        <v>0</v>
-      </c>
-      <c r="P15" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="33">
-        <v>0</v>
-      </c>
-      <c r="R15" s="33">
-        <v>49</v>
-      </c>
-      <c r="S15" s="19">
-        <v>0</v>
-      </c>
-      <c r="T15" s="19">
-        <v>49</v>
-      </c>
-      <c r="U15" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A16" s="19" t="str">
-        <v>Kyle Hopper-Isaac</v>
-      </c>
-      <c r="B16" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C16" s="80" t="str">
-        <v>Seycove</v>
-      </c>
-      <c r="D16" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E16" s="34">
-        <v>8153</v>
-      </c>
-      <c r="F16" s="33">
-        <v>14</v>
-      </c>
-      <c r="G16" s="33">
-        <v>47</v>
-      </c>
-      <c r="H16" s="33">
-        <v>0</v>
-      </c>
-      <c r="I16" s="33">
-        <v>0</v>
-      </c>
-      <c r="J16" s="33">
-        <v>0</v>
-      </c>
-      <c r="K16" s="33">
-        <v>0</v>
-      </c>
-      <c r="L16" s="33">
-        <v>0</v>
-      </c>
-      <c r="M16" s="33">
-        <v>0</v>
-      </c>
-      <c r="N16" s="33">
-        <v>0</v>
-      </c>
-      <c r="O16" s="33">
-        <v>0</v>
-      </c>
-      <c r="P16" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="33">
-        <v>0</v>
-      </c>
-      <c r="R16" s="33">
-        <v>47</v>
-      </c>
-      <c r="S16" s="19">
-        <v>0</v>
-      </c>
-      <c r="T16" s="19">
-        <v>47</v>
-      </c>
-      <c r="U16" s="19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="19" t="str">
-        <v>Ben Hall</v>
-      </c>
-      <c r="B17" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C17" s="80" t="str">
-        <v>Argyle</v>
-      </c>
-      <c r="D17" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E17" s="34">
-        <v>8118</v>
-      </c>
-      <c r="F17" s="33">
-        <v>15</v>
-      </c>
-      <c r="G17" s="33">
-        <v>45</v>
-      </c>
-      <c r="H17" s="33">
-        <v>0</v>
-      </c>
-      <c r="I17" s="33">
-        <v>0</v>
-      </c>
-      <c r="J17" s="33">
-        <v>0</v>
-      </c>
-      <c r="K17" s="33">
-        <v>0</v>
-      </c>
-      <c r="L17" s="33">
-        <v>0</v>
-      </c>
-      <c r="M17" s="33">
-        <v>0</v>
-      </c>
-      <c r="N17" s="33">
-        <v>0</v>
-      </c>
-      <c r="O17" s="33">
-        <v>0</v>
-      </c>
-      <c r="P17" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="33">
-        <v>0</v>
-      </c>
-      <c r="R17" s="33">
-        <v>45</v>
-      </c>
-      <c r="S17" s="19">
-        <v>0</v>
-      </c>
-      <c r="T17" s="19">
-        <v>45</v>
-      </c>
-      <c r="U17" s="19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="str">
-        <v>Benjamin MacPherson</v>
-      </c>
-      <c r="B18" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C18" s="80" t="str">
-        <v>Handsworth</v>
-      </c>
-      <c r="D18" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E18" s="34">
-        <v>8139</v>
-      </c>
-      <c r="F18" s="33">
-        <v>16</v>
-      </c>
-      <c r="G18" s="33">
-        <v>44</v>
-      </c>
-      <c r="H18" s="33">
-        <v>0</v>
-      </c>
-      <c r="I18" s="33">
-        <v>0</v>
-      </c>
-      <c r="J18" s="33">
-        <v>0</v>
-      </c>
-      <c r="K18" s="33">
-        <v>0</v>
-      </c>
-      <c r="L18" s="33">
-        <v>0</v>
-      </c>
-      <c r="M18" s="33">
-        <v>0</v>
-      </c>
-      <c r="N18" s="33">
-        <v>0</v>
-      </c>
-      <c r="O18" s="33">
-        <v>0</v>
-      </c>
-      <c r="P18" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="33">
-        <v>0</v>
-      </c>
-      <c r="R18" s="33">
-        <v>44</v>
-      </c>
-      <c r="S18" s="19">
-        <v>0</v>
-      </c>
-      <c r="T18" s="19">
-        <v>44</v>
-      </c>
-      <c r="U18" s="19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="19" t="str">
-        <v>Finny Stacey</v>
-      </c>
-      <c r="B19" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C19" s="80" t="str">
-        <v>Collingwood</v>
-      </c>
-      <c r="D19" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E19" s="34">
-        <v>8125</v>
-      </c>
-      <c r="F19" s="33">
-        <v>17</v>
-      </c>
-      <c r="G19" s="33">
-        <v>43</v>
-      </c>
-      <c r="H19" s="33">
-        <v>0</v>
-      </c>
-      <c r="I19" s="33">
-        <v>0</v>
-      </c>
-      <c r="J19" s="33">
-        <v>0</v>
-      </c>
-      <c r="K19" s="33">
-        <v>0</v>
-      </c>
-      <c r="L19" s="33">
-        <v>0</v>
-      </c>
-      <c r="M19" s="33">
-        <v>0</v>
-      </c>
-      <c r="N19" s="33">
-        <v>0</v>
-      </c>
-      <c r="O19" s="33">
-        <v>0</v>
-      </c>
-      <c r="P19" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="33">
-        <v>0</v>
-      </c>
-      <c r="R19" s="33">
-        <v>43</v>
-      </c>
-      <c r="S19" s="19">
-        <v>0</v>
-      </c>
-      <c r="T19" s="19">
-        <v>43</v>
-      </c>
-      <c r="U19" s="19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="str">
-        <v>Milo Trenouth</v>
-      </c>
-      <c r="B20" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C20" s="80" t="str">
-        <v>Argyle</v>
-      </c>
-      <c r="D20" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E20" s="34">
-        <v>8123</v>
-      </c>
-      <c r="F20" s="33">
-        <v>18</v>
-      </c>
-      <c r="G20" s="33">
-        <v>42</v>
-      </c>
-      <c r="H20" s="33">
-        <v>0</v>
-      </c>
-      <c r="I20" s="33">
-        <v>0</v>
-      </c>
-      <c r="J20" s="33">
-        <v>0</v>
-      </c>
-      <c r="K20" s="33">
-        <v>0</v>
-      </c>
-      <c r="L20" s="33">
-        <v>0</v>
-      </c>
-      <c r="M20" s="33">
-        <v>0</v>
-      </c>
-      <c r="N20" s="33">
-        <v>0</v>
-      </c>
-      <c r="O20" s="33">
-        <v>0</v>
-      </c>
-      <c r="P20" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="33">
-        <v>0</v>
-      </c>
-      <c r="R20" s="33">
-        <v>42</v>
-      </c>
-      <c r="S20" s="19">
-        <v>0</v>
-      </c>
-      <c r="T20" s="19">
-        <v>42</v>
-      </c>
-      <c r="U20" s="19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="str">
-        <v>Alexandre Roy</v>
-      </c>
-      <c r="B21" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C21" s="80" t="str">
-        <v>Sutherland</v>
-      </c>
-      <c r="D21" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E21" s="34">
-        <v>8170</v>
-      </c>
-      <c r="F21" s="33">
-        <v>19</v>
-      </c>
-      <c r="G21" s="33">
-        <v>41</v>
-      </c>
-      <c r="H21" s="33">
-        <v>0</v>
-      </c>
-      <c r="I21" s="33">
-        <v>0</v>
-      </c>
-      <c r="J21" s="33">
-        <v>0</v>
-      </c>
-      <c r="K21" s="33">
-        <v>0</v>
-      </c>
-      <c r="L21" s="33">
-        <v>0</v>
-      </c>
-      <c r="M21" s="33">
-        <v>0</v>
-      </c>
-      <c r="N21" s="33">
-        <v>0</v>
-      </c>
-      <c r="O21" s="33">
-        <v>0</v>
-      </c>
-      <c r="P21" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="33">
-        <v>0</v>
-      </c>
-      <c r="R21" s="33">
-        <v>41</v>
-      </c>
-      <c r="S21" s="19">
-        <v>0</v>
-      </c>
-      <c r="T21" s="19">
-        <v>41</v>
-      </c>
-      <c r="U21" s="19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="str">
-        <v>Wyatt Orr</v>
-      </c>
-      <c r="B22" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C22" s="80" t="str">
-        <v>Sutherland</v>
-      </c>
-      <c r="D22" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E22" s="34">
-        <v>8168</v>
-      </c>
-      <c r="F22" s="33">
-        <v>20</v>
-      </c>
-      <c r="G22" s="33">
-        <v>40</v>
-      </c>
-      <c r="H22" s="33">
-        <v>0</v>
-      </c>
-      <c r="I22" s="33">
-        <v>0</v>
-      </c>
-      <c r="J22" s="33">
-        <v>0</v>
-      </c>
-      <c r="K22" s="33">
-        <v>0</v>
-      </c>
-      <c r="L22" s="33">
-        <v>0</v>
-      </c>
-      <c r="M22" s="33">
-        <v>0</v>
-      </c>
-      <c r="N22" s="33">
-        <v>0</v>
-      </c>
-      <c r="O22" s="33">
-        <v>0</v>
-      </c>
-      <c r="P22" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="33">
-        <v>0</v>
-      </c>
-      <c r="R22" s="33">
-        <v>40</v>
-      </c>
-      <c r="S22" s="19">
-        <v>0</v>
-      </c>
-      <c r="T22" s="19">
-        <v>40</v>
-      </c>
-      <c r="U22" s="19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="19" t="str">
-        <v>Daniel Munroe</v>
-      </c>
-      <c r="B23" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C23" s="80" t="str">
-        <v>Argyle</v>
-      </c>
-      <c r="D23" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E23" s="34">
-        <v>8117</v>
-      </c>
-      <c r="F23" s="33">
-        <v>21</v>
-      </c>
-      <c r="G23" s="33">
-        <v>39</v>
-      </c>
-      <c r="H23" s="33">
-        <v>0</v>
-      </c>
-      <c r="I23" s="33">
-        <v>0</v>
-      </c>
-      <c r="J23" s="33">
-        <v>0</v>
-      </c>
-      <c r="K23" s="33">
-        <v>0</v>
-      </c>
-      <c r="L23" s="33">
-        <v>0</v>
-      </c>
-      <c r="M23" s="33">
-        <v>0</v>
-      </c>
-      <c r="N23" s="33">
-        <v>0</v>
-      </c>
-      <c r="O23" s="33">
-        <v>0</v>
-      </c>
-      <c r="P23" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="33">
-        <v>0</v>
-      </c>
-      <c r="R23" s="33">
-        <v>39</v>
-      </c>
-      <c r="S23" s="19">
-        <v>0</v>
-      </c>
-      <c r="T23" s="19">
-        <v>39</v>
-      </c>
-      <c r="U23" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="19" t="str">
-        <v>Jared Kalisch</v>
-      </c>
-      <c r="B24" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C24" s="80" t="str">
-        <v>Seycove</v>
-      </c>
-      <c r="D24" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E24" s="34">
-        <v>8155</v>
-      </c>
-      <c r="F24" s="33">
-        <v>22</v>
-      </c>
-      <c r="G24" s="33">
-        <v>38</v>
-      </c>
-      <c r="H24" s="33">
-        <v>0</v>
-      </c>
-      <c r="I24" s="33">
-        <v>0</v>
-      </c>
-      <c r="J24" s="33">
-        <v>0</v>
-      </c>
-      <c r="K24" s="33">
-        <v>0</v>
-      </c>
-      <c r="L24" s="33">
-        <v>0</v>
-      </c>
-      <c r="M24" s="33">
-        <v>0</v>
-      </c>
-      <c r="N24" s="33">
-        <v>0</v>
-      </c>
-      <c r="O24" s="33">
-        <v>0</v>
-      </c>
-      <c r="P24" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="33">
-        <v>0</v>
-      </c>
-      <c r="R24" s="33">
-        <v>38</v>
-      </c>
-      <c r="S24" s="19">
-        <v>0</v>
-      </c>
-      <c r="T24" s="19">
-        <v>38</v>
-      </c>
-      <c r="U24" s="19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" s="19" t="str">
-        <v>Luke Brownlee</v>
-      </c>
-      <c r="B25" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C25" s="80" t="str">
-        <v>STA</v>
-      </c>
-      <c r="D25" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E25" s="34">
-        <v>8160</v>
-      </c>
-      <c r="F25" s="33">
-        <v>23</v>
-      </c>
-      <c r="G25" s="33">
-        <v>37</v>
-      </c>
-      <c r="H25" s="33">
-        <v>0</v>
-      </c>
-      <c r="I25" s="33">
-        <v>0</v>
-      </c>
-      <c r="J25" s="33">
-        <v>0</v>
-      </c>
-      <c r="K25" s="33">
-        <v>0</v>
-      </c>
-      <c r="L25" s="33">
-        <v>0</v>
-      </c>
-      <c r="M25" s="33">
-        <v>0</v>
-      </c>
-      <c r="N25" s="33">
-        <v>0</v>
-      </c>
-      <c r="O25" s="33">
-        <v>0</v>
-      </c>
-      <c r="P25" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="33">
-        <v>0</v>
-      </c>
-      <c r="R25" s="33">
-        <v>37</v>
-      </c>
-      <c r="S25" s="19">
-        <v>0</v>
-      </c>
-      <c r="T25" s="19">
-        <v>37</v>
-      </c>
-      <c r="U25" s="19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="19" t="str">
-        <v>Stellan Ortved</v>
-      </c>
-      <c r="B26" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C26" s="80" t="str">
-        <v>Collingwood</v>
-      </c>
-      <c r="D26" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E26" s="34">
-        <v>8128</v>
-      </c>
-      <c r="F26" s="33">
-        <v>24</v>
-      </c>
-      <c r="G26" s="33">
-        <v>36</v>
-      </c>
-      <c r="H26" s="33">
-        <v>0</v>
-      </c>
-      <c r="I26" s="33">
-        <v>0</v>
-      </c>
-      <c r="J26" s="33">
-        <v>0</v>
-      </c>
-      <c r="K26" s="33">
-        <v>0</v>
-      </c>
-      <c r="L26" s="33">
-        <v>0</v>
-      </c>
-      <c r="M26" s="33">
-        <v>0</v>
-      </c>
-      <c r="N26" s="33">
-        <v>0</v>
-      </c>
-      <c r="O26" s="33">
-        <v>0</v>
-      </c>
-      <c r="P26" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="33">
-        <v>0</v>
-      </c>
-      <c r="R26" s="33">
-        <v>36</v>
-      </c>
-      <c r="S26" s="19">
-        <v>0</v>
-      </c>
-      <c r="T26" s="19">
-        <v>36</v>
-      </c>
-      <c r="U26" s="19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="19" t="str">
-        <v>Pierre Hungr Gonzalez</v>
-      </c>
-      <c r="B27" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C27" s="80" t="str">
-        <v>West Van</v>
-      </c>
-      <c r="D27" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E27" s="34">
-        <v>8171</v>
-      </c>
-      <c r="F27" s="33">
-        <v>25</v>
-      </c>
-      <c r="G27" s="33">
-        <v>35</v>
-      </c>
-      <c r="H27" s="33">
-        <v>0</v>
-      </c>
-      <c r="I27" s="33">
-        <v>0</v>
-      </c>
-      <c r="J27" s="33">
-        <v>0</v>
-      </c>
-      <c r="K27" s="33">
-        <v>0</v>
-      </c>
-      <c r="L27" s="33">
-        <v>0</v>
-      </c>
-      <c r="M27" s="33">
-        <v>0</v>
-      </c>
-      <c r="N27" s="33">
-        <v>0</v>
-      </c>
-      <c r="O27" s="33">
-        <v>0</v>
-      </c>
-      <c r="P27" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="33">
-        <v>0</v>
-      </c>
-      <c r="R27" s="33">
-        <v>35</v>
-      </c>
-      <c r="S27" s="19">
-        <v>0</v>
-      </c>
-      <c r="T27" s="19">
-        <v>35</v>
-      </c>
-      <c r="U27" s="19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="19" t="str">
-        <v>Simon Hungr Gonzalez</v>
-      </c>
-      <c r="B28" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C28" s="80" t="str">
-        <v>West Van</v>
-      </c>
-      <c r="D28" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E28" s="34">
-        <v>8172</v>
-      </c>
-      <c r="F28" s="33">
-        <v>26</v>
-      </c>
-      <c r="G28" s="33">
-        <v>34</v>
-      </c>
-      <c r="H28" s="33">
-        <v>0</v>
-      </c>
-      <c r="I28" s="33">
-        <v>0</v>
-      </c>
-      <c r="J28" s="33">
-        <v>0</v>
-      </c>
-      <c r="K28" s="33">
-        <v>0</v>
-      </c>
-      <c r="L28" s="33">
-        <v>0</v>
-      </c>
-      <c r="M28" s="33">
-        <v>0</v>
-      </c>
-      <c r="N28" s="33">
-        <v>0</v>
-      </c>
-      <c r="O28" s="33">
-        <v>0</v>
-      </c>
-      <c r="P28" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="33">
-        <v>0</v>
-      </c>
-      <c r="R28" s="33">
-        <v>34</v>
-      </c>
-      <c r="S28" s="19">
-        <v>0</v>
-      </c>
-      <c r="T28" s="19">
-        <v>34</v>
-      </c>
-      <c r="U28" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="19" t="str">
-        <v>Oliver Thatcher</v>
-      </c>
-      <c r="B29" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C29" s="80" t="str">
-        <v>Sutherland</v>
-      </c>
-      <c r="D29" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E29" s="34">
-        <v>8167</v>
-      </c>
-      <c r="F29" s="33">
-        <v>27</v>
-      </c>
-      <c r="G29" s="33">
-        <v>33</v>
-      </c>
-      <c r="H29" s="33">
-        <v>0</v>
-      </c>
-      <c r="I29" s="33">
-        <v>0</v>
-      </c>
-      <c r="J29" s="33">
-        <v>0</v>
-      </c>
-      <c r="K29" s="33">
-        <v>0</v>
-      </c>
-      <c r="L29" s="33">
-        <v>0</v>
-      </c>
-      <c r="M29" s="33">
-        <v>0</v>
-      </c>
-      <c r="N29" s="33">
-        <v>0</v>
-      </c>
-      <c r="O29" s="33">
-        <v>0</v>
-      </c>
-      <c r="P29" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="33">
-        <v>0</v>
-      </c>
-      <c r="R29" s="33">
-        <v>33</v>
-      </c>
-      <c r="S29" s="19">
-        <v>0</v>
-      </c>
-      <c r="T29" s="19">
-        <v>33</v>
-      </c>
-      <c r="U29" s="19">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="19" t="str">
-        <v>Lucas Riedel</v>
-      </c>
-      <c r="B30" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C30" s="80" t="str">
-        <v>STA</v>
-      </c>
-      <c r="D30" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E30" s="34">
-        <v>8162</v>
-      </c>
-      <c r="F30" s="33">
-        <v>28</v>
-      </c>
-      <c r="G30" s="33">
-        <v>32</v>
-      </c>
-      <c r="H30" s="33">
-        <v>0</v>
-      </c>
-      <c r="I30" s="33">
-        <v>0</v>
-      </c>
-      <c r="J30" s="33">
-        <v>0</v>
-      </c>
-      <c r="K30" s="33">
-        <v>0</v>
-      </c>
-      <c r="L30" s="33">
-        <v>0</v>
-      </c>
-      <c r="M30" s="33">
-        <v>0</v>
-      </c>
-      <c r="N30" s="33">
-        <v>0</v>
-      </c>
-      <c r="O30" s="33">
-        <v>0</v>
-      </c>
-      <c r="P30" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="33">
-        <v>0</v>
-      </c>
-      <c r="R30" s="33">
-        <v>32</v>
-      </c>
-      <c r="S30" s="19">
-        <v>0</v>
-      </c>
-      <c r="T30" s="19">
-        <v>32</v>
-      </c>
-      <c r="U30" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="19" t="str">
-        <v>Maksimas Viskontas</v>
-      </c>
-      <c r="B31" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C31" s="80" t="str">
-        <v>STA</v>
-      </c>
-      <c r="D31" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E31" s="34">
-        <v>8164</v>
-      </c>
-      <c r="F31" s="33">
-        <v>29</v>
-      </c>
-      <c r="G31" s="33">
-        <v>31</v>
-      </c>
-      <c r="H31" s="33">
-        <v>0</v>
-      </c>
-      <c r="I31" s="33">
-        <v>0</v>
-      </c>
-      <c r="J31" s="33">
-        <v>0</v>
-      </c>
-      <c r="K31" s="33">
-        <v>0</v>
-      </c>
-      <c r="L31" s="33">
-        <v>0</v>
-      </c>
-      <c r="M31" s="33">
-        <v>0</v>
-      </c>
-      <c r="N31" s="33">
-        <v>0</v>
-      </c>
-      <c r="O31" s="33">
-        <v>0</v>
-      </c>
-      <c r="P31" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="33">
-        <v>0</v>
-      </c>
-      <c r="R31" s="33">
-        <v>31</v>
-      </c>
-      <c r="S31" s="19">
-        <v>0</v>
-      </c>
-      <c r="T31" s="19">
-        <v>31</v>
-      </c>
-      <c r="U31" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32" s="19" t="str">
-        <v>Charlie Jones</v>
-      </c>
-      <c r="B32" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C32" s="80" t="str">
-        <v>St. Georges</v>
-      </c>
-      <c r="D32" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E32" s="34">
-        <v>8157</v>
-      </c>
-      <c r="F32" s="33">
-        <v>30</v>
-      </c>
-      <c r="G32" s="33">
-        <v>30</v>
-      </c>
-      <c r="H32" s="33">
-        <v>0</v>
-      </c>
-      <c r="I32" s="33">
-        <v>0</v>
-      </c>
-      <c r="J32" s="33">
-        <v>0</v>
-      </c>
-      <c r="K32" s="33">
-        <v>0</v>
-      </c>
-      <c r="L32" s="33">
-        <v>0</v>
-      </c>
-      <c r="M32" s="33">
-        <v>0</v>
-      </c>
-      <c r="N32" s="33">
-        <v>0</v>
-      </c>
-      <c r="O32" s="33">
-        <v>0</v>
-      </c>
-      <c r="P32" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="33">
-        <v>0</v>
-      </c>
-      <c r="R32" s="33">
-        <v>30</v>
-      </c>
-      <c r="S32" s="19">
-        <v>0</v>
-      </c>
-      <c r="T32" s="19">
-        <v>30</v>
-      </c>
-      <c r="U32" s="19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="19" t="str">
-        <v>Bruckner Norman-Thiessen</v>
-      </c>
-      <c r="B33" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C33" s="80" t="str">
-        <v>Collingwood</v>
-      </c>
-      <c r="D33" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E33" s="34">
-        <v>8129</v>
-      </c>
-      <c r="F33" s="33">
-        <v>31</v>
-      </c>
-      <c r="G33" s="33">
-        <v>29</v>
-      </c>
-      <c r="H33" s="33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="33">
-        <v>0</v>
-      </c>
-      <c r="J33" s="33">
-        <v>0</v>
-      </c>
-      <c r="K33" s="33">
-        <v>0</v>
-      </c>
-      <c r="L33" s="33">
-        <v>0</v>
-      </c>
-      <c r="M33" s="33">
-        <v>0</v>
-      </c>
-      <c r="N33" s="33">
-        <v>0</v>
-      </c>
-      <c r="O33" s="33">
-        <v>0</v>
-      </c>
-      <c r="P33" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="33">
-        <v>0</v>
-      </c>
-      <c r="R33" s="33">
-        <v>29</v>
-      </c>
-      <c r="S33" s="19">
-        <v>0</v>
-      </c>
-      <c r="T33" s="19">
-        <v>29</v>
-      </c>
-      <c r="U33" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="19" t="str">
-        <v>Ben Zanatta</v>
-      </c>
-      <c r="B34" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C34" s="80" t="str">
-        <v>Rockridge</v>
-      </c>
-      <c r="D34" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E34" s="34">
-        <v>8151</v>
-      </c>
-      <c r="F34" s="33">
-        <v>32</v>
-      </c>
-      <c r="G34" s="33">
-        <v>28</v>
-      </c>
-      <c r="H34" s="33">
-        <v>0</v>
-      </c>
-      <c r="I34" s="33">
-        <v>0</v>
-      </c>
-      <c r="J34" s="33">
-        <v>0</v>
-      </c>
-      <c r="K34" s="33">
-        <v>0</v>
-      </c>
-      <c r="L34" s="33">
-        <v>0</v>
-      </c>
-      <c r="M34" s="33">
-        <v>0</v>
-      </c>
-      <c r="N34" s="33">
-        <v>0</v>
-      </c>
-      <c r="O34" s="33">
-        <v>0</v>
-      </c>
-      <c r="P34" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="33">
-        <v>0</v>
-      </c>
-      <c r="R34" s="33">
-        <v>28</v>
-      </c>
-      <c r="S34" s="19">
-        <v>0</v>
-      </c>
-      <c r="T34" s="19">
-        <v>28</v>
-      </c>
-      <c r="U34" s="19">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="19" t="str">
-        <v>Graydon Hotel</v>
-      </c>
-      <c r="B35" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C35" s="80" t="str">
-        <v>Handsworth</v>
-      </c>
-      <c r="D35" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E35" s="34">
-        <v>8141</v>
-      </c>
-      <c r="F35" s="33">
-        <v>33</v>
-      </c>
-      <c r="G35" s="33">
-        <v>27</v>
-      </c>
-      <c r="H35" s="33">
-        <v>0</v>
-      </c>
-      <c r="I35" s="33">
-        <v>0</v>
-      </c>
-      <c r="J35" s="33">
-        <v>0</v>
-      </c>
-      <c r="K35" s="33">
-        <v>0</v>
-      </c>
-      <c r="L35" s="33">
-        <v>0</v>
-      </c>
-      <c r="M35" s="33">
-        <v>0</v>
-      </c>
-      <c r="N35" s="33">
-        <v>0</v>
-      </c>
-      <c r="O35" s="33">
-        <v>0</v>
-      </c>
-      <c r="P35" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="33">
-        <v>0</v>
-      </c>
-      <c r="R35" s="33">
-        <v>27</v>
-      </c>
-      <c r="S35" s="19">
-        <v>0</v>
-      </c>
-      <c r="T35" s="19">
-        <v>27</v>
-      </c>
-      <c r="U35" s="19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="19" t="str">
-        <v>Derin Unal</v>
-      </c>
-      <c r="B36" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C36" s="80" t="str">
-        <v>Mulgrave</v>
-      </c>
-      <c r="D36" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E36" s="34">
-        <v>8145</v>
-      </c>
-      <c r="F36" s="33">
-        <v>34</v>
-      </c>
-      <c r="G36" s="33">
-        <v>26</v>
-      </c>
-      <c r="H36" s="33">
-        <v>0</v>
-      </c>
-      <c r="I36" s="33">
-        <v>0</v>
-      </c>
-      <c r="J36" s="33">
-        <v>0</v>
-      </c>
-      <c r="K36" s="33">
-        <v>0</v>
-      </c>
-      <c r="L36" s="33">
-        <v>0</v>
-      </c>
-      <c r="M36" s="33">
-        <v>0</v>
-      </c>
-      <c r="N36" s="33">
-        <v>0</v>
-      </c>
-      <c r="O36" s="33">
-        <v>0</v>
-      </c>
-      <c r="P36" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="33">
-        <v>0</v>
-      </c>
-      <c r="R36" s="33">
-        <v>26</v>
-      </c>
-      <c r="S36" s="19">
-        <v>0</v>
-      </c>
-      <c r="T36" s="19">
-        <v>26</v>
-      </c>
-      <c r="U36" s="19">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="19" t="str">
-        <v>Gavin Del Fante</v>
-      </c>
-      <c r="B37" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C37" s="80" t="str">
-        <v>Seycove</v>
-      </c>
-      <c r="D37" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E37" s="34">
-        <v>8152</v>
-      </c>
-      <c r="F37" s="33">
-        <v>35</v>
-      </c>
-      <c r="G37" s="33">
-        <v>25</v>
-      </c>
-      <c r="H37" s="33">
-        <v>0</v>
-      </c>
-      <c r="I37" s="33">
-        <v>0</v>
-      </c>
-      <c r="J37" s="33">
-        <v>0</v>
-      </c>
-      <c r="K37" s="33">
-        <v>0</v>
-      </c>
-      <c r="L37" s="33">
-        <v>0</v>
-      </c>
-      <c r="M37" s="33">
-        <v>0</v>
-      </c>
-      <c r="N37" s="33">
-        <v>0</v>
-      </c>
-      <c r="O37" s="33">
-        <v>0</v>
-      </c>
-      <c r="P37" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="33">
-        <v>0</v>
-      </c>
-      <c r="R37" s="33">
-        <v>25</v>
-      </c>
-      <c r="S37" s="19">
-        <v>0</v>
-      </c>
-      <c r="T37" s="19">
-        <v>25</v>
-      </c>
-      <c r="U37" s="19">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="19" t="str">
-        <v>Logan Weiss-Podolski</v>
-      </c>
-      <c r="B38" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C38" s="80" t="str">
-        <v>Carson</v>
-      </c>
-      <c r="D38" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E38" s="34">
-        <v>804</v>
-      </c>
-      <c r="F38" s="33">
-        <v>36</v>
-      </c>
-      <c r="G38" s="33">
-        <v>24</v>
-      </c>
-      <c r="H38" s="33">
-        <v>0</v>
-      </c>
-      <c r="I38" s="33">
-        <v>0</v>
-      </c>
-      <c r="J38" s="33">
-        <v>0</v>
-      </c>
-      <c r="K38" s="33">
-        <v>0</v>
-      </c>
-      <c r="L38" s="33">
-        <v>0</v>
-      </c>
-      <c r="M38" s="33">
-        <v>0</v>
-      </c>
-      <c r="N38" s="33">
-        <v>0</v>
-      </c>
-      <c r="O38" s="33">
-        <v>0</v>
-      </c>
-      <c r="P38" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="33">
-        <v>0</v>
-      </c>
-      <c r="R38" s="33">
-        <v>24</v>
-      </c>
-      <c r="S38" s="19">
-        <v>0</v>
-      </c>
-      <c r="T38" s="19">
-        <v>24</v>
-      </c>
-      <c r="U38" s="19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="19" t="str">
-        <v>Matthew Runzer</v>
-      </c>
-      <c r="B39" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C39" s="80" t="str">
-        <v>Handsworth</v>
-      </c>
-      <c r="D39" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E39" s="34">
-        <v>8142</v>
-      </c>
-      <c r="F39" s="33">
-        <v>37</v>
-      </c>
-      <c r="G39" s="33">
-        <v>23</v>
-      </c>
-      <c r="H39" s="33">
-        <v>0</v>
-      </c>
-      <c r="I39" s="33">
-        <v>0</v>
-      </c>
-      <c r="J39" s="33">
-        <v>0</v>
-      </c>
-      <c r="K39" s="33">
-        <v>0</v>
-      </c>
-      <c r="L39" s="33">
-        <v>0</v>
-      </c>
-      <c r="M39" s="33">
-        <v>0</v>
-      </c>
-      <c r="N39" s="33">
-        <v>0</v>
-      </c>
-      <c r="O39" s="33">
-        <v>0</v>
-      </c>
-      <c r="P39" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="33">
-        <v>0</v>
-      </c>
-      <c r="R39" s="33">
-        <v>23</v>
-      </c>
-      <c r="S39" s="19">
-        <v>0</v>
-      </c>
-      <c r="T39" s="19">
-        <v>23</v>
-      </c>
-      <c r="U39" s="19">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="19" t="str">
-        <v>Bradley Harris</v>
-      </c>
-      <c r="B40" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C40" s="80" t="str">
-        <v>Sutherland</v>
-      </c>
-      <c r="D40" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E40" s="34">
-        <v>8169</v>
-      </c>
-      <c r="F40" s="33">
-        <v>37</v>
-      </c>
-      <c r="G40" s="33">
-        <v>23</v>
-      </c>
-      <c r="H40" s="33">
-        <v>0</v>
-      </c>
-      <c r="I40" s="33">
-        <v>0</v>
-      </c>
-      <c r="J40" s="33">
-        <v>0</v>
-      </c>
-      <c r="K40" s="33">
-        <v>0</v>
-      </c>
-      <c r="L40" s="33">
-        <v>0</v>
-      </c>
-      <c r="M40" s="33">
-        <v>0</v>
-      </c>
-      <c r="N40" s="33">
-        <v>0</v>
-      </c>
-      <c r="O40" s="33">
-        <v>0</v>
-      </c>
-      <c r="P40" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="33">
-        <v>0</v>
-      </c>
-      <c r="R40" s="33">
-        <v>23</v>
-      </c>
-      <c r="S40" s="19">
-        <v>0</v>
-      </c>
-      <c r="T40" s="19">
-        <v>23</v>
-      </c>
-      <c r="U40" s="19">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="19" t="str">
-        <v>Bradley Keane</v>
-      </c>
-      <c r="B41" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C41" s="80" t="str">
-        <v>Collingwood</v>
-      </c>
-      <c r="D41" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E41" s="34">
-        <v>8126</v>
-      </c>
-      <c r="F41" s="33">
-        <v>38</v>
-      </c>
-      <c r="G41" s="33">
-        <v>22</v>
-      </c>
-      <c r="H41" s="33">
-        <v>0</v>
-      </c>
-      <c r="I41" s="33">
-        <v>0</v>
-      </c>
-      <c r="J41" s="33">
-        <v>0</v>
-      </c>
-      <c r="K41" s="33">
-        <v>0</v>
-      </c>
-      <c r="L41" s="33">
-        <v>0</v>
-      </c>
-      <c r="M41" s="33">
-        <v>0</v>
-      </c>
-      <c r="N41" s="33">
-        <v>0</v>
-      </c>
-      <c r="O41" s="33">
-        <v>0</v>
-      </c>
-      <c r="P41" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="33">
-        <v>0</v>
-      </c>
-      <c r="R41" s="33">
-        <v>22</v>
-      </c>
-      <c r="S41" s="19">
-        <v>0</v>
-      </c>
-      <c r="T41" s="19">
-        <v>22</v>
-      </c>
-      <c r="U41" s="19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="19" t="str">
-        <v>James Felix</v>
-      </c>
-      <c r="B42" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C42" s="80" t="str">
-        <v>Windsor</v>
-      </c>
-      <c r="D42" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E42" s="34">
-        <v>8175</v>
-      </c>
-      <c r="F42" s="33">
-        <v>39</v>
-      </c>
-      <c r="G42" s="33">
-        <v>21</v>
-      </c>
-      <c r="H42" s="33">
-        <v>0</v>
-      </c>
-      <c r="I42" s="33">
-        <v>0</v>
-      </c>
-      <c r="J42" s="33">
-        <v>0</v>
-      </c>
-      <c r="K42" s="33">
-        <v>0</v>
-      </c>
-      <c r="L42" s="33">
-        <v>0</v>
-      </c>
-      <c r="M42" s="33">
-        <v>0</v>
-      </c>
-      <c r="N42" s="33">
-        <v>0</v>
-      </c>
-      <c r="O42" s="33">
-        <v>0</v>
-      </c>
-      <c r="P42" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="33">
-        <v>0</v>
-      </c>
-      <c r="R42" s="33">
-        <v>21</v>
-      </c>
-      <c r="S42" s="19">
-        <v>0</v>
-      </c>
-      <c r="T42" s="19">
-        <v>21</v>
-      </c>
-      <c r="U42" s="19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="19" t="str">
-        <v>Bradley Stephenson</v>
-      </c>
-      <c r="B43" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C43" s="80" t="str">
-        <v>Sutherland</v>
-      </c>
-      <c r="D43" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E43" s="34">
-        <v>8166</v>
-      </c>
-      <c r="F43" s="33">
-        <v>40</v>
-      </c>
-      <c r="G43" s="33">
-        <v>20</v>
-      </c>
-      <c r="H43" s="33">
-        <v>0</v>
-      </c>
-      <c r="I43" s="33">
-        <v>0</v>
-      </c>
-      <c r="J43" s="33">
-        <v>0</v>
-      </c>
-      <c r="K43" s="33">
-        <v>0</v>
-      </c>
-      <c r="L43" s="33">
-        <v>0</v>
-      </c>
-      <c r="M43" s="33">
-        <v>0</v>
-      </c>
-      <c r="N43" s="33">
-        <v>0</v>
-      </c>
-      <c r="O43" s="33">
-        <v>0</v>
-      </c>
-      <c r="P43" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="33">
-        <v>0</v>
-      </c>
-      <c r="R43" s="33">
-        <v>20</v>
-      </c>
-      <c r="S43" s="19">
-        <v>0</v>
-      </c>
-      <c r="T43" s="19">
-        <v>20</v>
-      </c>
-      <c r="U43" s="19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="19" t="str">
-        <v>Asher Webb</v>
-      </c>
-      <c r="B44" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C44" s="80" t="str">
-        <v>Handsworth</v>
-      </c>
-      <c r="D44" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E44" s="34">
-        <v>8138</v>
-      </c>
-      <c r="F44" s="33">
-        <v>41</v>
-      </c>
-      <c r="G44" s="33">
-        <v>19</v>
-      </c>
-      <c r="H44" s="33">
-        <v>0</v>
-      </c>
-      <c r="I44" s="33">
-        <v>0</v>
-      </c>
-      <c r="J44" s="33">
-        <v>0</v>
-      </c>
-      <c r="K44" s="33">
-        <v>0</v>
-      </c>
-      <c r="L44" s="33">
-        <v>0</v>
-      </c>
-      <c r="M44" s="33">
-        <v>0</v>
-      </c>
-      <c r="N44" s="33">
-        <v>0</v>
-      </c>
-      <c r="O44" s="33">
-        <v>0</v>
-      </c>
-      <c r="P44" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="33">
-        <v>0</v>
-      </c>
-      <c r="R44" s="33">
-        <v>19</v>
-      </c>
-      <c r="S44" s="19">
-        <v>0</v>
-      </c>
-      <c r="T44" s="19">
-        <v>19</v>
-      </c>
-      <c r="U44" s="19">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="19" t="str">
-        <v>Cameron Horte</v>
-      </c>
-      <c r="B45" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C45" s="80" t="str">
-        <v>Rockridge</v>
-      </c>
-      <c r="D45" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E45" s="34">
-        <v>8150</v>
-      </c>
-      <c r="F45" s="33">
-        <v>42</v>
-      </c>
-      <c r="G45" s="33">
-        <v>18</v>
-      </c>
-      <c r="H45" s="33">
-        <v>0</v>
-      </c>
-      <c r="I45" s="33">
-        <v>0</v>
-      </c>
-      <c r="J45" s="33">
-        <v>0</v>
-      </c>
-      <c r="K45" s="33">
-        <v>0</v>
-      </c>
-      <c r="L45" s="33">
-        <v>0</v>
-      </c>
-      <c r="M45" s="33">
-        <v>0</v>
-      </c>
-      <c r="N45" s="33">
-        <v>0</v>
-      </c>
-      <c r="O45" s="33">
-        <v>0</v>
-      </c>
-      <c r="P45" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="33">
-        <v>0</v>
-      </c>
-      <c r="R45" s="33">
-        <v>18</v>
-      </c>
-      <c r="S45" s="19">
-        <v>0</v>
-      </c>
-      <c r="T45" s="19">
-        <v>18</v>
-      </c>
-      <c r="U45" s="19">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="19" t="str">
-        <v>Jack Lucy</v>
-      </c>
-      <c r="B46" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C46" s="80" t="str">
-        <v>Argyle</v>
-      </c>
-      <c r="D46" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E46" s="34">
-        <v>8143</v>
-      </c>
-      <c r="F46" s="33" t="str">
-        <v>DNF</v>
-      </c>
-      <c r="G46" s="33">
-        <v>1</v>
-      </c>
-      <c r="H46" s="33">
-        <v>0</v>
-      </c>
-      <c r="I46" s="33">
-        <v>0</v>
-      </c>
-      <c r="J46" s="33">
-        <v>0</v>
-      </c>
-      <c r="K46" s="33">
-        <v>0</v>
-      </c>
-      <c r="L46" s="33">
-        <v>0</v>
-      </c>
-      <c r="M46" s="33">
-        <v>0</v>
-      </c>
-      <c r="N46" s="33">
-        <v>0</v>
-      </c>
-      <c r="O46" s="33">
-        <v>0</v>
-      </c>
-      <c r="P46" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="33">
-        <v>0</v>
-      </c>
-      <c r="R46" s="33">
-        <v>1</v>
-      </c>
-      <c r="S46" s="19">
-        <v>0</v>
-      </c>
-      <c r="T46" s="19">
-        <v>1</v>
-      </c>
-      <c r="U46" s="19">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="19" t="str">
-        <v>Emil Wright</v>
-      </c>
-      <c r="B47" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C47" s="80" t="str">
-        <v>Argyle</v>
-      </c>
-      <c r="D47" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E47" s="34">
-        <v>8120</v>
-      </c>
-      <c r="F47" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G47" s="33">
-        <v>0</v>
-      </c>
-      <c r="H47" s="33">
-        <v>0</v>
-      </c>
-      <c r="I47" s="33">
-        <v>0</v>
-      </c>
-      <c r="J47" s="33">
-        <v>0</v>
-      </c>
-      <c r="K47" s="33">
-        <v>0</v>
-      </c>
-      <c r="L47" s="33">
-        <v>0</v>
-      </c>
-      <c r="M47" s="33">
-        <v>0</v>
-      </c>
-      <c r="N47" s="33">
-        <v>0</v>
-      </c>
-      <c r="O47" s="33">
-        <v>0</v>
-      </c>
-      <c r="P47" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="33">
-        <v>0</v>
-      </c>
-      <c r="R47" s="33">
-        <v>0</v>
-      </c>
-      <c r="S47" s="19">
-        <v>0</v>
-      </c>
-      <c r="T47" s="19">
-        <v>0</v>
-      </c>
-      <c r="U47" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="19" t="str">
-        <v>Brynn Loader</v>
-      </c>
-      <c r="B48" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C48" s="80" t="str">
-        <v>Argyle</v>
-      </c>
-      <c r="D48" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E48" s="34">
-        <v>8124</v>
-      </c>
-      <c r="F48" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G48" s="33">
-        <v>0</v>
-      </c>
-      <c r="H48" s="33">
-        <v>0</v>
-      </c>
-      <c r="I48" s="33">
-        <v>0</v>
-      </c>
-      <c r="J48" s="33">
-        <v>0</v>
-      </c>
-      <c r="K48" s="33">
-        <v>0</v>
-      </c>
-      <c r="L48" s="33">
-        <v>0</v>
-      </c>
-      <c r="M48" s="33">
-        <v>0</v>
-      </c>
-      <c r="N48" s="33">
-        <v>0</v>
-      </c>
-      <c r="O48" s="33">
-        <v>0</v>
-      </c>
-      <c r="P48" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="33">
-        <v>0</v>
-      </c>
-      <c r="R48" s="33">
-        <v>0</v>
-      </c>
-      <c r="S48" s="19">
-        <v>0</v>
-      </c>
-      <c r="T48" s="19">
-        <v>0</v>
-      </c>
-      <c r="U48" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A49" s="19" t="str">
-        <v>Adrien Luu</v>
-      </c>
-      <c r="B49" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C49" s="80" t="str">
-        <v>Argyle</v>
-      </c>
-      <c r="D49" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E49" s="34">
-        <v>8177</v>
-      </c>
-      <c r="F49" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G49" s="33">
-        <v>0</v>
-      </c>
-      <c r="H49" s="33">
-        <v>0</v>
-      </c>
-      <c r="I49" s="33">
-        <v>0</v>
-      </c>
-      <c r="J49" s="33">
-        <v>0</v>
-      </c>
-      <c r="K49" s="33">
-        <v>0</v>
-      </c>
-      <c r="L49" s="33">
-        <v>0</v>
-      </c>
-      <c r="M49" s="33">
-        <v>0</v>
-      </c>
-      <c r="N49" s="33">
-        <v>0</v>
-      </c>
-      <c r="O49" s="33">
-        <v>0</v>
-      </c>
-      <c r="P49" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="33">
-        <v>0</v>
-      </c>
-      <c r="R49" s="33">
-        <v>0</v>
-      </c>
-      <c r="S49" s="19">
-        <v>0</v>
-      </c>
-      <c r="T49" s="19">
-        <v>0</v>
-      </c>
-      <c r="U49" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A50" s="19" t="str">
-        <v>Alexander Chan Skadkjaer</v>
-      </c>
-      <c r="B50" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C50" s="80" t="str">
-        <v>Brockton</v>
-      </c>
-      <c r="D50" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E50" s="34">
-        <v>8009</v>
-      </c>
-      <c r="F50" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G50" s="33">
-        <v>0</v>
-      </c>
-      <c r="H50" s="33">
-        <v>0</v>
-      </c>
-      <c r="I50" s="33">
-        <v>0</v>
-      </c>
-      <c r="J50" s="33">
-        <v>0</v>
-      </c>
-      <c r="K50" s="33">
-        <v>0</v>
-      </c>
-      <c r="L50" s="33">
-        <v>0</v>
-      </c>
-      <c r="M50" s="33">
-        <v>0</v>
-      </c>
-      <c r="N50" s="33">
-        <v>0</v>
-      </c>
-      <c r="O50" s="33">
-        <v>0</v>
-      </c>
-      <c r="P50" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="33">
-        <v>0</v>
-      </c>
-      <c r="R50" s="33">
-        <v>0</v>
-      </c>
-      <c r="S50" s="19">
-        <v>0</v>
-      </c>
-      <c r="T50" s="19">
-        <v>0</v>
-      </c>
-      <c r="U50" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A51" s="19" t="str">
-        <v>William Hendricks-Ives</v>
-      </c>
-      <c r="B51" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C51" s="80" t="str">
-        <v>Brockton</v>
-      </c>
-      <c r="D51" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E51" s="34">
-        <v>8010</v>
-      </c>
-      <c r="F51" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G51" s="33">
-        <v>0</v>
-      </c>
-      <c r="H51" s="33">
-        <v>0</v>
-      </c>
-      <c r="I51" s="33">
-        <v>0</v>
-      </c>
-      <c r="J51" s="33">
-        <v>0</v>
-      </c>
-      <c r="K51" s="33">
-        <v>0</v>
-      </c>
-      <c r="L51" s="33">
-        <v>0</v>
-      </c>
-      <c r="M51" s="33">
-        <v>0</v>
-      </c>
-      <c r="N51" s="33">
-        <v>0</v>
-      </c>
-      <c r="O51" s="33">
-        <v>0</v>
-      </c>
-      <c r="P51" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="33">
-        <v>0</v>
-      </c>
-      <c r="R51" s="33">
-        <v>0</v>
-      </c>
-      <c r="S51" s="19">
-        <v>0</v>
-      </c>
-      <c r="T51" s="19">
-        <v>0</v>
-      </c>
-      <c r="U51" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A52" s="19" t="str">
-        <v>Jasper Fofonoff</v>
-      </c>
-      <c r="B52" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C52" s="80" t="str">
-        <v>Coast Mtn</v>
-      </c>
-      <c r="D52" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E52" s="34">
-        <v>8093</v>
-      </c>
-      <c r="F52" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G52" s="33">
-        <v>0</v>
-      </c>
-      <c r="H52" s="33">
-        <v>0</v>
-      </c>
-      <c r="I52" s="33">
-        <v>0</v>
-      </c>
-      <c r="J52" s="33">
-        <v>0</v>
-      </c>
-      <c r="K52" s="33">
-        <v>0</v>
-      </c>
-      <c r="L52" s="33">
-        <v>0</v>
-      </c>
-      <c r="M52" s="33">
-        <v>0</v>
-      </c>
-      <c r="N52" s="33">
-        <v>0</v>
-      </c>
-      <c r="O52" s="33">
-        <v>0</v>
-      </c>
-      <c r="P52" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="33">
-        <v>0</v>
-      </c>
-      <c r="R52" s="33">
-        <v>0</v>
-      </c>
-      <c r="S52" s="19">
-        <v>0</v>
-      </c>
-      <c r="T52" s="19">
-        <v>0</v>
-      </c>
-      <c r="U52" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A53" s="19" t="str">
-        <v>Tavian Haddad</v>
-      </c>
-      <c r="B53" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C53" s="80" t="str">
-        <v>Collingwood</v>
-      </c>
-      <c r="D53" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E53" s="34">
-        <v>8127</v>
-      </c>
-      <c r="F53" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G53" s="33">
-        <v>0</v>
-      </c>
-      <c r="H53" s="33">
-        <v>0</v>
-      </c>
-      <c r="I53" s="33">
-        <v>0</v>
-      </c>
-      <c r="J53" s="33">
-        <v>0</v>
-      </c>
-      <c r="K53" s="33">
-        <v>0</v>
-      </c>
-      <c r="L53" s="33">
-        <v>0</v>
-      </c>
-      <c r="M53" s="33">
-        <v>0</v>
-      </c>
-      <c r="N53" s="33">
-        <v>0</v>
-      </c>
-      <c r="O53" s="33">
-        <v>0</v>
-      </c>
-      <c r="P53" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="33">
-        <v>0</v>
-      </c>
-      <c r="R53" s="33">
-        <v>0</v>
-      </c>
-      <c r="S53" s="19">
-        <v>0</v>
-      </c>
-      <c r="T53" s="19">
-        <v>0</v>
-      </c>
-      <c r="U53" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A54" s="19" t="str">
-        <v>Braden Hope</v>
-      </c>
-      <c r="B54" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C54" s="80" t="str">
-        <v xml:space="preserve">Don Ross  </v>
-      </c>
-      <c r="D54" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E54" s="34">
-        <v>8130</v>
-      </c>
-      <c r="F54" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G54" s="33">
-        <v>0</v>
-      </c>
-      <c r="H54" s="33">
-        <v>0</v>
-      </c>
-      <c r="I54" s="33">
-        <v>0</v>
-      </c>
-      <c r="J54" s="33">
-        <v>0</v>
-      </c>
-      <c r="K54" s="33">
-        <v>0</v>
-      </c>
-      <c r="L54" s="33">
-        <v>0</v>
-      </c>
-      <c r="M54" s="33">
-        <v>0</v>
-      </c>
-      <c r="N54" s="33">
-        <v>0</v>
-      </c>
-      <c r="O54" s="33">
-        <v>0</v>
-      </c>
-      <c r="P54" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="33">
-        <v>0</v>
-      </c>
-      <c r="R54" s="33">
-        <v>0</v>
-      </c>
-      <c r="S54" s="19">
-        <v>0</v>
-      </c>
-      <c r="T54" s="19">
-        <v>0</v>
-      </c>
-      <c r="U54" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A55" s="19" t="str">
-        <v>Jack Westwood</v>
-      </c>
-      <c r="B55" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C55" s="80" t="str">
-        <v xml:space="preserve">Don Ross  </v>
-      </c>
-      <c r="D55" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E55" s="34">
-        <v>8131</v>
-      </c>
-      <c r="F55" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G55" s="33">
-        <v>0</v>
-      </c>
-      <c r="H55" s="33">
-        <v>0</v>
-      </c>
-      <c r="I55" s="33">
-        <v>0</v>
-      </c>
-      <c r="J55" s="33">
-        <v>0</v>
-      </c>
-      <c r="K55" s="33">
-        <v>0</v>
-      </c>
-      <c r="L55" s="33">
-        <v>0</v>
-      </c>
-      <c r="M55" s="33">
-        <v>0</v>
-      </c>
-      <c r="N55" s="33">
-        <v>0</v>
-      </c>
-      <c r="O55" s="33">
-        <v>0</v>
-      </c>
-      <c r="P55" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="33">
-        <v>0</v>
-      </c>
-      <c r="R55" s="33">
-        <v>0</v>
-      </c>
-      <c r="S55" s="19">
-        <v>0</v>
-      </c>
-      <c r="T55" s="19">
-        <v>0</v>
-      </c>
-      <c r="U55" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A56" s="19" t="str">
-        <v>Nash Furneaux</v>
-      </c>
-      <c r="B56" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C56" s="80" t="str">
-        <v xml:space="preserve">Don Ross  </v>
-      </c>
-      <c r="D56" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E56" s="34">
-        <v>8132</v>
-      </c>
-      <c r="F56" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G56" s="33">
-        <v>0</v>
-      </c>
-      <c r="H56" s="33">
-        <v>0</v>
-      </c>
-      <c r="I56" s="33">
-        <v>0</v>
-      </c>
-      <c r="J56" s="33">
-        <v>0</v>
-      </c>
-      <c r="K56" s="33">
-        <v>0</v>
-      </c>
-      <c r="L56" s="33">
-        <v>0</v>
-      </c>
-      <c r="M56" s="33">
-        <v>0</v>
-      </c>
-      <c r="N56" s="33">
-        <v>0</v>
-      </c>
-      <c r="O56" s="33">
-        <v>0</v>
-      </c>
-      <c r="P56" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="33">
-        <v>0</v>
-      </c>
-      <c r="R56" s="33">
-        <v>0</v>
-      </c>
-      <c r="S56" s="19">
-        <v>0</v>
-      </c>
-      <c r="T56" s="19">
-        <v>0</v>
-      </c>
-      <c r="U56" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A57" s="19" t="str">
-        <v>Olivier Courcelles</v>
-      </c>
-      <c r="B57" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C57" s="80" t="str">
-        <v xml:space="preserve">Don Ross  </v>
-      </c>
-      <c r="D57" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E57" s="34">
-        <v>8133</v>
-      </c>
-      <c r="F57" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G57" s="33">
-        <v>0</v>
-      </c>
-      <c r="H57" s="33">
-        <v>0</v>
-      </c>
-      <c r="I57" s="33">
-        <v>0</v>
-      </c>
-      <c r="J57" s="33">
-        <v>0</v>
-      </c>
-      <c r="K57" s="33">
-        <v>0</v>
-      </c>
-      <c r="L57" s="33">
-        <v>0</v>
-      </c>
-      <c r="M57" s="33">
-        <v>0</v>
-      </c>
-      <c r="N57" s="33">
-        <v>0</v>
-      </c>
-      <c r="O57" s="33">
-        <v>0</v>
-      </c>
-      <c r="P57" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="33">
-        <v>0</v>
-      </c>
-      <c r="R57" s="33">
-        <v>0</v>
-      </c>
-      <c r="S57" s="19">
-        <v>0</v>
-      </c>
-      <c r="T57" s="19">
-        <v>0</v>
-      </c>
-      <c r="U57" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A58" s="19" t="str">
-        <v>Benardo Gomes</v>
-      </c>
-      <c r="B58" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C58" s="80" t="str">
-        <v xml:space="preserve">Don Ross  </v>
-      </c>
-      <c r="D58" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E58" s="34">
-        <v>8135</v>
-      </c>
-      <c r="F58" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G58" s="33">
-        <v>0</v>
-      </c>
-      <c r="H58" s="33">
-        <v>0</v>
-      </c>
-      <c r="I58" s="33">
-        <v>0</v>
-      </c>
-      <c r="J58" s="33">
-        <v>0</v>
-      </c>
-      <c r="K58" s="33">
-        <v>0</v>
-      </c>
-      <c r="L58" s="33">
-        <v>0</v>
-      </c>
-      <c r="M58" s="33">
-        <v>0</v>
-      </c>
-      <c r="N58" s="33">
-        <v>0</v>
-      </c>
-      <c r="O58" s="33">
-        <v>0</v>
-      </c>
-      <c r="P58" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="33">
-        <v>0</v>
-      </c>
-      <c r="R58" s="33">
-        <v>0</v>
-      </c>
-      <c r="S58" s="19">
-        <v>0</v>
-      </c>
-      <c r="T58" s="19">
-        <v>0</v>
-      </c>
-      <c r="U58" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A59" s="19" t="str">
-        <v>Peter Miller</v>
-      </c>
-      <c r="B59" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C59" s="80" t="str">
-        <v>Elphinstone</v>
-      </c>
-      <c r="D59" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E59" s="34">
-        <v>8136</v>
-      </c>
-      <c r="F59" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G59" s="33">
-        <v>0</v>
-      </c>
-      <c r="H59" s="33">
-        <v>0</v>
-      </c>
-      <c r="I59" s="33">
-        <v>0</v>
-      </c>
-      <c r="J59" s="33">
-        <v>0</v>
-      </c>
-      <c r="K59" s="33">
-        <v>0</v>
-      </c>
-      <c r="L59" s="33">
-        <v>0</v>
-      </c>
-      <c r="M59" s="33">
-        <v>0</v>
-      </c>
-      <c r="N59" s="33">
-        <v>0</v>
-      </c>
-      <c r="O59" s="33">
-        <v>0</v>
-      </c>
-      <c r="P59" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="33">
-        <v>0</v>
-      </c>
-      <c r="R59" s="33">
-        <v>0</v>
-      </c>
-      <c r="S59" s="19">
-        <v>0</v>
-      </c>
-      <c r="T59" s="19">
-        <v>0</v>
-      </c>
-      <c r="U59" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A60" s="19" t="str">
-        <v>Emile Morisset</v>
-      </c>
-      <c r="B60" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C60" s="80" t="str">
-        <v>Handsworth</v>
-      </c>
-      <c r="D60" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E60" s="34">
-        <v>8140</v>
-      </c>
-      <c r="F60" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G60" s="33">
-        <v>0</v>
-      </c>
-      <c r="H60" s="33">
-        <v>0</v>
-      </c>
-      <c r="I60" s="33">
-        <v>0</v>
-      </c>
-      <c r="J60" s="33">
-        <v>0</v>
-      </c>
-      <c r="K60" s="33">
-        <v>0</v>
-      </c>
-      <c r="L60" s="33">
-        <v>0</v>
-      </c>
-      <c r="M60" s="33">
-        <v>0</v>
-      </c>
-      <c r="N60" s="33">
-        <v>0</v>
-      </c>
-      <c r="O60" s="33">
-        <v>0</v>
-      </c>
-      <c r="P60" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="33">
-        <v>0</v>
-      </c>
-      <c r="R60" s="33">
-        <v>0</v>
-      </c>
-      <c r="S60" s="19">
-        <v>0</v>
-      </c>
-      <c r="T60" s="19">
-        <v>0</v>
-      </c>
-      <c r="U60" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A61" s="19" t="str">
-        <v>Tavish Bubbs</v>
-      </c>
-      <c r="B61" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C61" s="80" t="str">
-        <v xml:space="preserve">Pemberton  </v>
-      </c>
-      <c r="D61" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E61" s="34">
-        <v>8146</v>
-      </c>
-      <c r="F61" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G61" s="33">
-        <v>0</v>
-      </c>
-      <c r="H61" s="33">
-        <v>0</v>
-      </c>
-      <c r="I61" s="33">
-        <v>0</v>
-      </c>
-      <c r="J61" s="33">
-        <v>0</v>
-      </c>
-      <c r="K61" s="33">
-        <v>0</v>
-      </c>
-      <c r="L61" s="33">
-        <v>0</v>
-      </c>
-      <c r="M61" s="33">
-        <v>0</v>
-      </c>
-      <c r="N61" s="33">
-        <v>0</v>
-      </c>
-      <c r="O61" s="33">
-        <v>0</v>
-      </c>
-      <c r="P61" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="33">
-        <v>0</v>
-      </c>
-      <c r="R61" s="33">
-        <v>0</v>
-      </c>
-      <c r="S61" s="19">
-        <v>0</v>
-      </c>
-      <c r="T61" s="19">
-        <v>0</v>
-      </c>
-      <c r="U61" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A62" s="19" t="str">
-        <v>Mack Manietta</v>
-      </c>
-      <c r="B62" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C62" s="80" t="str">
-        <v xml:space="preserve">Pemberton  </v>
-      </c>
-      <c r="D62" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E62" s="34">
-        <v>8147</v>
-      </c>
-      <c r="F62" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G62" s="33">
-        <v>0</v>
-      </c>
-      <c r="H62" s="33">
-        <v>0</v>
-      </c>
-      <c r="I62" s="33">
-        <v>0</v>
-      </c>
-      <c r="J62" s="33">
-        <v>0</v>
-      </c>
-      <c r="K62" s="33">
-        <v>0</v>
-      </c>
-      <c r="L62" s="33">
-        <v>0</v>
-      </c>
-      <c r="M62" s="33">
-        <v>0</v>
-      </c>
-      <c r="N62" s="33">
-        <v>0</v>
-      </c>
-      <c r="O62" s="33">
-        <v>0</v>
-      </c>
-      <c r="P62" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="33">
-        <v>0</v>
-      </c>
-      <c r="R62" s="33">
-        <v>0</v>
-      </c>
-      <c r="S62" s="19">
-        <v>0</v>
-      </c>
-      <c r="T62" s="19">
-        <v>0</v>
-      </c>
-      <c r="U62" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A63" s="19" t="str">
-        <v>Henri Teitzel</v>
-      </c>
-      <c r="B63" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C63" s="80" t="str">
-        <v xml:space="preserve">Pemberton  </v>
-      </c>
-      <c r="D63" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E63" s="34">
-        <v>8148</v>
-      </c>
-      <c r="F63" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G63" s="33">
-        <v>0</v>
-      </c>
-      <c r="H63" s="33">
-        <v>0</v>
-      </c>
-      <c r="I63" s="33">
-        <v>0</v>
-      </c>
-      <c r="J63" s="33">
-        <v>0</v>
-      </c>
-      <c r="K63" s="33">
-        <v>0</v>
-      </c>
-      <c r="L63" s="33">
-        <v>0</v>
-      </c>
-      <c r="M63" s="33">
-        <v>0</v>
-      </c>
-      <c r="N63" s="33">
-        <v>0</v>
-      </c>
-      <c r="O63" s="33">
-        <v>0</v>
-      </c>
-      <c r="P63" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="33">
-        <v>0</v>
-      </c>
-      <c r="R63" s="33">
-        <v>0</v>
-      </c>
-      <c r="S63" s="19">
-        <v>0</v>
-      </c>
-      <c r="T63" s="19">
-        <v>0</v>
-      </c>
-      <c r="U63" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A64" s="19" t="str">
-        <v xml:space="preserve">Owen Kainer </v>
-      </c>
-      <c r="B64" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C64" s="80" t="str">
-        <v>Seycove</v>
-      </c>
-      <c r="D64" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E64" s="34">
-        <v>8154</v>
-      </c>
-      <c r="F64" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G64" s="33">
-        <v>0</v>
-      </c>
-      <c r="H64" s="33">
-        <v>0</v>
-      </c>
-      <c r="I64" s="33">
-        <v>0</v>
-      </c>
-      <c r="J64" s="33">
-        <v>0</v>
-      </c>
-      <c r="K64" s="33">
-        <v>0</v>
-      </c>
-      <c r="L64" s="33">
-        <v>0</v>
-      </c>
-      <c r="M64" s="33">
-        <v>0</v>
-      </c>
-      <c r="N64" s="33">
-        <v>0</v>
-      </c>
-      <c r="O64" s="33">
-        <v>0</v>
-      </c>
-      <c r="P64" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="33">
-        <v>0</v>
-      </c>
-      <c r="R64" s="33">
-        <v>0</v>
-      </c>
-      <c r="S64" s="19">
-        <v>0</v>
-      </c>
-      <c r="T64" s="19">
-        <v>0</v>
-      </c>
-      <c r="U64" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A65" s="19" t="str">
-        <v>Jackson Bozzer</v>
-      </c>
-      <c r="B65" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C65" s="80" t="str">
-        <v>St. Georges</v>
-      </c>
-      <c r="D65" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E65" s="34">
-        <v>8158</v>
-      </c>
-      <c r="F65" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G65" s="33">
-        <v>0</v>
-      </c>
-      <c r="H65" s="33">
-        <v>0</v>
-      </c>
-      <c r="I65" s="33">
-        <v>0</v>
-      </c>
-      <c r="J65" s="33">
-        <v>0</v>
-      </c>
-      <c r="K65" s="33">
-        <v>0</v>
-      </c>
-      <c r="L65" s="33">
-        <v>0</v>
-      </c>
-      <c r="M65" s="33">
-        <v>0</v>
-      </c>
-      <c r="N65" s="33">
-        <v>0</v>
-      </c>
-      <c r="O65" s="33">
-        <v>0</v>
-      </c>
-      <c r="P65" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="33">
-        <v>0</v>
-      </c>
-      <c r="R65" s="33">
-        <v>0</v>
-      </c>
-      <c r="S65" s="19">
-        <v>0</v>
-      </c>
-      <c r="T65" s="19">
-        <v>0</v>
-      </c>
-      <c r="U65" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A66" s="19" t="str">
-        <v>Owen White</v>
-      </c>
-      <c r="B66" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C66" s="80" t="str">
-        <v>Whistler</v>
-      </c>
-      <c r="D66" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E66" s="34">
-        <v>8173</v>
-      </c>
-      <c r="F66" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G66" s="33">
-        <v>0</v>
-      </c>
-      <c r="H66" s="33">
-        <v>0</v>
-      </c>
-      <c r="I66" s="33">
-        <v>0</v>
-      </c>
-      <c r="J66" s="33">
-        <v>0</v>
-      </c>
-      <c r="K66" s="33">
-        <v>0</v>
-      </c>
-      <c r="L66" s="33">
-        <v>0</v>
-      </c>
-      <c r="M66" s="33">
-        <v>0</v>
-      </c>
-      <c r="N66" s="33">
-        <v>0</v>
-      </c>
-      <c r="O66" s="33">
-        <v>0</v>
-      </c>
-      <c r="P66" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="33">
-        <v>0</v>
-      </c>
-      <c r="R66" s="33">
-        <v>0</v>
-      </c>
-      <c r="S66" s="19">
-        <v>0</v>
-      </c>
-      <c r="T66" s="19">
-        <v>0</v>
-      </c>
-      <c r="U66" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A67" s="19" t="str">
-        <v>Everest Crane</v>
-      </c>
-      <c r="B67" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C67" s="80" t="str">
-        <v>Whistler</v>
-      </c>
-      <c r="D67" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E67" s="34">
-        <v>8174</v>
-      </c>
-      <c r="F67" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G67" s="33">
-        <v>0</v>
-      </c>
-      <c r="H67" s="33">
-        <v>0</v>
-      </c>
-      <c r="I67" s="33">
-        <v>0</v>
-      </c>
-      <c r="J67" s="33">
-        <v>0</v>
-      </c>
-      <c r="K67" s="33">
-        <v>0</v>
-      </c>
-      <c r="L67" s="33">
-        <v>0</v>
-      </c>
-      <c r="M67" s="33">
-        <v>0</v>
-      </c>
-      <c r="N67" s="33">
-        <v>0</v>
-      </c>
-      <c r="O67" s="33">
-        <v>0</v>
-      </c>
-      <c r="P67" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="33">
-        <v>0</v>
-      </c>
-      <c r="R67" s="33">
-        <v>0</v>
-      </c>
-      <c r="S67" s="19">
-        <v>0</v>
-      </c>
-      <c r="T67" s="19">
-        <v>0</v>
-      </c>
-      <c r="U67" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A68" s="19" t="str">
-        <v>Rafe Dykstra</v>
-      </c>
-      <c r="B68" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C68" s="80" t="str">
-        <v>Windsor</v>
-      </c>
-      <c r="D68" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E68" s="34">
-        <v>8176</v>
-      </c>
-      <c r="F68" s="33" t="str">
-        <v>DNR</v>
-      </c>
-      <c r="G68" s="33">
-        <v>0</v>
-      </c>
-      <c r="H68" s="33">
-        <v>0</v>
-      </c>
-      <c r="I68" s="33">
-        <v>0</v>
-      </c>
-      <c r="J68" s="33">
-        <v>0</v>
-      </c>
-      <c r="K68" s="33">
-        <v>0</v>
-      </c>
-      <c r="L68" s="33">
-        <v>0</v>
-      </c>
-      <c r="M68" s="33">
-        <v>0</v>
-      </c>
-      <c r="N68" s="33">
-        <v>0</v>
-      </c>
-      <c r="O68" s="33">
-        <v>0</v>
-      </c>
-      <c r="P68" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="33">
-        <v>0</v>
-      </c>
-      <c r="R68" s="33">
-        <v>0</v>
-      </c>
-      <c r="S68" s="19">
-        <v>0</v>
-      </c>
-      <c r="T68" s="19">
-        <v>0</v>
-      </c>
-      <c r="U68" s="19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A69" s="19" t="str">
-        <v>Oliver Parkinson</v>
-      </c>
-      <c r="B69" s="19" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="C69" s="80" t="str">
-        <v>Seycove</v>
-      </c>
-      <c r="D69" s="33" t="str">
-        <v>Bant Boys</v>
-      </c>
-      <c r="E69" s="34">
-        <v>8179</v>
-      </c>
-      <c r="F69" s="33">
-        <v>43</v>
-      </c>
-      <c r="G69" s="33">
-        <v>17</v>
-      </c>
-      <c r="H69" s="33">
-        <v>0</v>
-      </c>
-      <c r="I69" s="33">
-        <v>0</v>
-      </c>
-      <c r="J69" s="33">
-        <v>0</v>
-      </c>
-      <c r="K69" s="33">
-        <v>0</v>
-      </c>
-      <c r="L69" s="33">
-        <v>0</v>
-      </c>
-      <c r="M69" s="33">
-        <v>0</v>
-      </c>
-      <c r="N69" s="33">
-        <v>0</v>
-      </c>
-      <c r="O69" s="33">
-        <v>0</v>
-      </c>
-      <c r="P69" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="33">
-        <v>0</v>
-      </c>
-      <c r="R69" s="33">
-        <v>0</v>
-      </c>
-      <c r="S69" s="19">
-        <v>0</v>
-      </c>
-      <c r="T69" s="19">
-        <v>0</v>
-      </c>
-      <c r="U69" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P70" s="33"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P71" s="33"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P72" s="33"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P73" s="33"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P74" s="33"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P75" s="33"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P76" s="33"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P77" s="33"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P78" s="33"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P79" s="33"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="P80" s="33"/>
-    </row>
-    <row r="81" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P81" s="33"/>
-    </row>
-    <row r="82" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P82" s="33"/>
-    </row>
-    <row r="83" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P83" s="33"/>
-    </row>
-    <row r="84" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P84" s="33"/>
-    </row>
-    <row r="85" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P85" s="33"/>
-    </row>
-    <row r="86" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P86" s="33"/>
-    </row>
-    <row r="87" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P87" s="33"/>
-    </row>
-    <row r="88" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P88" s="33"/>
-    </row>
-    <row r="89" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P89" s="33"/>
-    </row>
-    <row r="90" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P90" s="33"/>
-    </row>
-    <row r="91" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P91" s="33"/>
-    </row>
-    <row r="92" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P92" s="33"/>
-    </row>
-    <row r="93" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P93" s="33"/>
-    </row>
-    <row r="94" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P94" s="33"/>
-    </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P95" s="33"/>
-    </row>
-    <row r="96" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P96" s="33"/>
-    </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P97" s="33"/>
-    </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P98" s="33"/>
-    </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P99" s="33"/>
-    </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P100" s="33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2426855C-7EAF-445C-8877-FB69F0F4DB09}">
-          <x14:formula1>
-            <xm:f>Lists!$A$1:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
